--- a/Ringkasan Saham-minggu ke2 Juni 2020.xlsx
+++ b/Ringkasan Saham-minggu ke2 Juni 2020.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13740" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="15 Juni" sheetId="1" r:id="rId1"/>
     <sheet name="16 Juni" sheetId="2" r:id="rId2"/>
+    <sheet name="17 Juni" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'15 Juni'!$A$1:$AB$697</definedName>
@@ -4625,7 +4626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V696"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -48948,7 +48949,7 @@
         <v>69100</v>
       </c>
       <c r="V642" s="5">
-        <f t="shared" ref="V642:V705" si="10">U642-T642</f>
+        <f t="shared" ref="V642:V696" si="10">U642-T642</f>
         <v>-1017800</v>
       </c>
     </row>
@@ -52861,7 +52862,7 @@
         <v>17136800</v>
       </c>
       <c r="W2" s="5">
-        <f>V2-U2</f>
+        <f t="shared" ref="W2:W65" si="0">V2-U2</f>
         <v>16153800</v>
       </c>
     </row>
@@ -52933,7 +52934,7 @@
         <v>8636100</v>
       </c>
       <c r="W3" s="5">
-        <f>V3-U3</f>
+        <f t="shared" si="0"/>
         <v>8634600</v>
       </c>
     </row>
@@ -53005,7 +53006,7 @@
         <v>11143700</v>
       </c>
       <c r="W4" s="5">
-        <f>V4-U4</f>
+        <f t="shared" si="0"/>
         <v>7744000</v>
       </c>
     </row>
@@ -53077,7 +53078,7 @@
         <v>7221700</v>
       </c>
       <c r="W5" s="5">
-        <f>V5-U5</f>
+        <f t="shared" si="0"/>
         <v>7071700</v>
       </c>
     </row>
@@ -53149,7 +53150,7 @@
         <v>5863400</v>
       </c>
       <c r="W6" s="5">
-        <f>V6-U6</f>
+        <f t="shared" si="0"/>
         <v>3660900</v>
       </c>
     </row>
@@ -53221,7 +53222,7 @@
         <v>7429600</v>
       </c>
       <c r="W7" s="5">
-        <f>V7-U7</f>
+        <f t="shared" si="0"/>
         <v>3035700</v>
       </c>
     </row>
@@ -53293,7 +53294,7 @@
         <v>5006000</v>
       </c>
       <c r="W8" s="5">
-        <f>V8-U8</f>
+        <f t="shared" si="0"/>
         <v>2606900</v>
       </c>
     </row>
@@ -53365,7 +53366,7 @@
         <v>3234000</v>
       </c>
       <c r="W9" s="5">
-        <f>V9-U9</f>
+        <f t="shared" si="0"/>
         <v>2603300</v>
       </c>
     </row>
@@ -53437,7 +53438,7 @@
         <v>2418400</v>
       </c>
       <c r="W10" s="5">
-        <f>V10-U10</f>
+        <f t="shared" si="0"/>
         <v>2407500</v>
       </c>
     </row>
@@ -53509,7 +53510,7 @@
         <v>2463400</v>
       </c>
       <c r="W11" s="5">
-        <f>V11-U11</f>
+        <f t="shared" si="0"/>
         <v>2253300</v>
       </c>
     </row>
@@ -53581,7 +53582,7 @@
         <v>2183600</v>
       </c>
       <c r="W12" s="5">
-        <f>V12-U12</f>
+        <f t="shared" si="0"/>
         <v>1835300</v>
       </c>
     </row>
@@ -53653,7 +53654,7 @@
         <v>11939100</v>
       </c>
       <c r="W13" s="5">
-        <f>V13-U13</f>
+        <f t="shared" si="0"/>
         <v>1811400</v>
       </c>
     </row>
@@ -53725,7 +53726,7 @@
         <v>3867300</v>
       </c>
       <c r="W14" s="5">
-        <f>V14-U14</f>
+        <f t="shared" si="0"/>
         <v>1697400</v>
       </c>
     </row>
@@ -53797,7 +53798,7 @@
         <v>2909600</v>
       </c>
       <c r="W15" s="5">
-        <f>V15-U15</f>
+        <f t="shared" si="0"/>
         <v>1640200</v>
       </c>
     </row>
@@ -53869,7 +53870,7 @@
         <v>3552900</v>
       </c>
       <c r="W16" s="5">
-        <f>V16-U16</f>
+        <f t="shared" si="0"/>
         <v>1529600</v>
       </c>
     </row>
@@ -53941,7 +53942,7 @@
         <v>2701800</v>
       </c>
       <c r="W17" s="5">
-        <f>V17-U17</f>
+        <f t="shared" si="0"/>
         <v>1352400</v>
       </c>
     </row>
@@ -54013,7 +54014,7 @@
         <v>1378800</v>
       </c>
       <c r="W18" s="5">
-        <f>V18-U18</f>
+        <f t="shared" si="0"/>
         <v>1243600</v>
       </c>
     </row>
@@ -54085,7 +54086,7 @@
         <v>1081200</v>
       </c>
       <c r="W19" s="5">
-        <f>V19-U19</f>
+        <f t="shared" si="0"/>
         <v>1035600</v>
       </c>
     </row>
@@ -54157,7 +54158,7 @@
         <v>7205500</v>
       </c>
       <c r="W20" s="5">
-        <f>V20-U20</f>
+        <f t="shared" si="0"/>
         <v>1027500</v>
       </c>
     </row>
@@ -54229,7 +54230,7 @@
         <v>2209300</v>
       </c>
       <c r="W21" s="5">
-        <f>V21-U21</f>
+        <f t="shared" si="0"/>
         <v>1003300</v>
       </c>
     </row>
@@ -54301,7 +54302,7 @@
         <v>1044300</v>
       </c>
       <c r="W22" s="5">
-        <f>V22-U22</f>
+        <f t="shared" si="0"/>
         <v>963200</v>
       </c>
     </row>
@@ -54373,7 +54374,7 @@
         <v>1070300</v>
       </c>
       <c r="W23" s="5">
-        <f>V23-U23</f>
+        <f t="shared" si="0"/>
         <v>961900</v>
       </c>
     </row>
@@ -54445,7 +54446,7 @@
         <v>2363000</v>
       </c>
       <c r="W24" s="5">
-        <f>V24-U24</f>
+        <f t="shared" si="0"/>
         <v>950800</v>
       </c>
     </row>
@@ -54517,7 +54518,7 @@
         <v>4429100</v>
       </c>
       <c r="W25" s="5">
-        <f>V25-U25</f>
+        <f t="shared" si="0"/>
         <v>942400</v>
       </c>
     </row>
@@ -54589,7 +54590,7 @@
         <v>1205900</v>
       </c>
       <c r="W26" s="5">
-        <f>V26-U26</f>
+        <f t="shared" si="0"/>
         <v>929100</v>
       </c>
     </row>
@@ -54661,7 +54662,7 @@
         <v>31154300</v>
       </c>
       <c r="W27" s="5">
-        <f>V27-U27</f>
+        <f t="shared" si="0"/>
         <v>789900</v>
       </c>
     </row>
@@ -54733,7 +54734,7 @@
         <v>800000</v>
       </c>
       <c r="W28" s="5">
-        <f>V28-U28</f>
+        <f t="shared" si="0"/>
         <v>760000</v>
       </c>
     </row>
@@ -54805,7 +54806,7 @@
         <v>749200</v>
       </c>
       <c r="W29" s="5">
-        <f>V29-U29</f>
+        <f t="shared" si="0"/>
         <v>749200</v>
       </c>
     </row>
@@ -54877,7 +54878,7 @@
         <v>66163300</v>
       </c>
       <c r="W30" s="5">
-        <f>V30-U30</f>
+        <f t="shared" si="0"/>
         <v>692400</v>
       </c>
     </row>
@@ -54949,7 +54950,7 @@
         <v>1102600</v>
       </c>
       <c r="W31" s="5">
-        <f>V31-U31</f>
+        <f t="shared" si="0"/>
         <v>687300</v>
       </c>
     </row>
@@ -55021,7 +55022,7 @@
         <v>1010500</v>
       </c>
       <c r="W32" s="5">
-        <f>V32-U32</f>
+        <f t="shared" si="0"/>
         <v>587300</v>
       </c>
     </row>
@@ -55093,7 +55094,7 @@
         <v>542100</v>
       </c>
       <c r="W33" s="5">
-        <f>V33-U33</f>
+        <f t="shared" si="0"/>
         <v>527100</v>
       </c>
     </row>
@@ -55165,7 +55166,7 @@
         <v>526800</v>
       </c>
       <c r="W34" s="5">
-        <f>V34-U34</f>
+        <f t="shared" si="0"/>
         <v>526800</v>
       </c>
     </row>
@@ -55237,7 +55238,7 @@
         <v>2465800</v>
       </c>
       <c r="W35" s="5">
-        <f>V35-U35</f>
+        <f t="shared" si="0"/>
         <v>493200</v>
       </c>
     </row>
@@ -55309,7 +55310,7 @@
         <v>492500</v>
       </c>
       <c r="W36" s="5">
-        <f>V36-U36</f>
+        <f t="shared" si="0"/>
         <v>492500</v>
       </c>
     </row>
@@ -55381,7 +55382,7 @@
         <v>500000</v>
       </c>
       <c r="W37" s="5">
-        <f>V37-U37</f>
+        <f t="shared" si="0"/>
         <v>488000</v>
       </c>
     </row>
@@ -55453,7 +55454,7 @@
         <v>487500</v>
       </c>
       <c r="W38" s="5">
-        <f>V38-U38</f>
+        <f t="shared" si="0"/>
         <v>486700</v>
       </c>
     </row>
@@ -55525,7 +55526,7 @@
         <v>2047800</v>
       </c>
       <c r="W39" s="5">
-        <f>V39-U39</f>
+        <f t="shared" si="0"/>
         <v>402700</v>
       </c>
     </row>
@@ -55597,7 +55598,7 @@
         <v>425500</v>
       </c>
       <c r="W40" s="5">
-        <f>V40-U40</f>
+        <f t="shared" si="0"/>
         <v>377000</v>
       </c>
     </row>
@@ -55669,7 +55670,7 @@
         <v>1255300</v>
       </c>
       <c r="W41" s="5">
-        <f>V41-U41</f>
+        <f t="shared" si="0"/>
         <v>351500</v>
       </c>
     </row>
@@ -55741,7 +55742,7 @@
         <v>315000</v>
       </c>
       <c r="W42" s="5">
-        <f>V42-U42</f>
+        <f t="shared" si="0"/>
         <v>315000</v>
       </c>
     </row>
@@ -55813,7 +55814,7 @@
         <v>362600</v>
       </c>
       <c r="W43" s="5">
-        <f>V43-U43</f>
+        <f t="shared" si="0"/>
         <v>308600</v>
       </c>
     </row>
@@ -55885,7 +55886,7 @@
         <v>310300</v>
       </c>
       <c r="W44" s="5">
-        <f>V44-U44</f>
+        <f t="shared" si="0"/>
         <v>300000</v>
       </c>
     </row>
@@ -55957,7 +55958,7 @@
         <v>1400000</v>
       </c>
       <c r="W45" s="5">
-        <f>V45-U45</f>
+        <f t="shared" si="0"/>
         <v>300000</v>
       </c>
     </row>
@@ -56029,7 +56030,7 @@
         <v>4667100</v>
       </c>
       <c r="W46" s="5">
-        <f>V46-U46</f>
+        <f t="shared" si="0"/>
         <v>274200</v>
       </c>
     </row>
@@ -56101,7 +56102,7 @@
         <v>1370900</v>
       </c>
       <c r="W47" s="5">
-        <f>V47-U47</f>
+        <f t="shared" si="0"/>
         <v>268700</v>
       </c>
     </row>
@@ -56173,7 +56174,7 @@
         <v>484700</v>
       </c>
       <c r="W48" s="5">
-        <f>V48-U48</f>
+        <f t="shared" si="0"/>
         <v>231100</v>
       </c>
     </row>
@@ -56245,7 +56246,7 @@
         <v>200000</v>
       </c>
       <c r="W49" s="5">
-        <f>V49-U49</f>
+        <f t="shared" si="0"/>
         <v>200000</v>
       </c>
     </row>
@@ -56317,7 +56318,7 @@
         <v>200000</v>
       </c>
       <c r="W50" s="5">
-        <f>V50-U50</f>
+        <f t="shared" si="0"/>
         <v>200000</v>
       </c>
     </row>
@@ -56389,7 +56390,7 @@
         <v>539900</v>
       </c>
       <c r="W51" s="5">
-        <f>V51-U51</f>
+        <f t="shared" si="0"/>
         <v>173600</v>
       </c>
     </row>
@@ -56461,7 +56462,7 @@
         <v>156900</v>
       </c>
       <c r="W52" s="5">
-        <f>V52-U52</f>
+        <f t="shared" si="0"/>
         <v>156900</v>
       </c>
     </row>
@@ -56533,7 +56534,7 @@
         <v>428200</v>
       </c>
       <c r="W53" s="5">
-        <f>V53-U53</f>
+        <f t="shared" si="0"/>
         <v>151900</v>
       </c>
     </row>
@@ -56605,7 +56606,7 @@
         <v>149400</v>
       </c>
       <c r="W54" s="5">
-        <f>V54-U54</f>
+        <f t="shared" si="0"/>
         <v>138000</v>
       </c>
     </row>
@@ -56677,7 +56678,7 @@
         <v>136800</v>
       </c>
       <c r="W55" s="5">
-        <f>V55-U55</f>
+        <f t="shared" si="0"/>
         <v>136800</v>
       </c>
     </row>
@@ -56749,7 +56750,7 @@
         <v>493500</v>
       </c>
       <c r="W56" s="5">
-        <f>V56-U56</f>
+        <f t="shared" si="0"/>
         <v>129200</v>
       </c>
     </row>
@@ -56821,7 +56822,7 @@
         <v>935300</v>
       </c>
       <c r="W57" s="5">
-        <f>V57-U57</f>
+        <f t="shared" si="0"/>
         <v>102400</v>
       </c>
     </row>
@@ -56893,7 +56894,7 @@
         <v>113000</v>
       </c>
       <c r="W58" s="5">
-        <f>V58-U58</f>
+        <f t="shared" si="0"/>
         <v>96300</v>
       </c>
     </row>
@@ -56965,7 +56966,7 @@
         <v>123100</v>
       </c>
       <c r="W59" s="5">
-        <f>V59-U59</f>
+        <f t="shared" si="0"/>
         <v>93400</v>
       </c>
     </row>
@@ -57037,7 +57038,7 @@
         <v>91500</v>
       </c>
       <c r="W60" s="5">
-        <f>V60-U60</f>
+        <f t="shared" si="0"/>
         <v>91500</v>
       </c>
     </row>
@@ -57109,7 +57110,7 @@
         <v>2593600</v>
       </c>
       <c r="W61" s="5">
-        <f>V61-U61</f>
+        <f t="shared" si="0"/>
         <v>67200</v>
       </c>
     </row>
@@ -57181,7 +57182,7 @@
         <v>4321900</v>
       </c>
       <c r="W62" s="5">
-        <f>V62-U62</f>
+        <f t="shared" si="0"/>
         <v>61500</v>
       </c>
     </row>
@@ -57253,7 +57254,7 @@
         <v>50200</v>
       </c>
       <c r="W63" s="5">
-        <f>V63-U63</f>
+        <f t="shared" si="0"/>
         <v>50200</v>
       </c>
     </row>
@@ -57325,7 +57326,7 @@
         <v>57800</v>
       </c>
       <c r="W64" s="5">
-        <f>V64-U64</f>
+        <f t="shared" si="0"/>
         <v>46500</v>
       </c>
     </row>
@@ -57397,7 +57398,7 @@
         <v>31900</v>
       </c>
       <c r="W65" s="5">
-        <f>V65-U65</f>
+        <f t="shared" si="0"/>
         <v>31900</v>
       </c>
     </row>
@@ -57469,7 +57470,7 @@
         <v>30000</v>
       </c>
       <c r="W66" s="5">
-        <f>V66-U66</f>
+        <f t="shared" ref="W66:W129" si="1">V66-U66</f>
         <v>30000</v>
       </c>
     </row>
@@ -57541,7 +57542,7 @@
         <v>26200</v>
       </c>
       <c r="W67" s="5">
-        <f>V67-U67</f>
+        <f t="shared" si="1"/>
         <v>26200</v>
       </c>
     </row>
@@ -57613,7 +57614,7 @@
         <v>25700</v>
       </c>
       <c r="W68" s="5">
-        <f>V68-U68</f>
+        <f t="shared" si="1"/>
         <v>25700</v>
       </c>
     </row>
@@ -57685,7 +57686,7 @@
         <v>25600</v>
       </c>
       <c r="W69" s="5">
-        <f>V69-U69</f>
+        <f t="shared" si="1"/>
         <v>25600</v>
       </c>
     </row>
@@ -57757,7 +57758,7 @@
         <v>519000</v>
       </c>
       <c r="W70" s="5">
-        <f>V70-U70</f>
+        <f t="shared" si="1"/>
         <v>25200</v>
       </c>
     </row>
@@ -57829,7 +57830,7 @@
         <v>20000</v>
       </c>
       <c r="W71" s="5">
-        <f>V71-U71</f>
+        <f t="shared" si="1"/>
         <v>20000</v>
       </c>
     </row>
@@ -57901,7 +57902,7 @@
         <v>39400</v>
       </c>
       <c r="W72" s="5">
-        <f>V72-U72</f>
+        <f t="shared" si="1"/>
         <v>19300</v>
       </c>
     </row>
@@ -57973,7 +57974,7 @@
         <v>25000</v>
       </c>
       <c r="W73" s="5">
-        <f>V73-U73</f>
+        <f t="shared" si="1"/>
         <v>19100</v>
       </c>
     </row>
@@ -58045,7 +58046,7 @@
         <v>16300</v>
       </c>
       <c r="W74" s="5">
-        <f>V74-U74</f>
+        <f t="shared" si="1"/>
         <v>16300</v>
       </c>
     </row>
@@ -58117,7 +58118,7 @@
         <v>12200</v>
       </c>
       <c r="W75" s="5">
-        <f>V75-U75</f>
+        <f t="shared" si="1"/>
         <v>12200</v>
       </c>
     </row>
@@ -58189,7 +58190,7 @@
         <v>11300</v>
       </c>
       <c r="W76" s="5">
-        <f>V76-U76</f>
+        <f t="shared" si="1"/>
         <v>11300</v>
       </c>
     </row>
@@ -58261,7 +58262,7 @@
         <v>9000</v>
       </c>
       <c r="W77" s="5">
-        <f>V77-U77</f>
+        <f t="shared" si="1"/>
         <v>9000</v>
       </c>
     </row>
@@ -58333,7 +58334,7 @@
         <v>10000</v>
       </c>
       <c r="W78" s="5">
-        <f>V78-U78</f>
+        <f t="shared" si="1"/>
         <v>8200</v>
       </c>
     </row>
@@ -58405,7 +58406,7 @@
         <v>85800</v>
       </c>
       <c r="W79" s="5">
-        <f>V79-U79</f>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
     </row>
@@ -58477,7 +58478,7 @@
         <v>4100</v>
       </c>
       <c r="W80" s="5">
-        <f>V80-U80</f>
+        <f t="shared" si="1"/>
         <v>4100</v>
       </c>
     </row>
@@ -58549,7 +58550,7 @@
         <v>4000</v>
       </c>
       <c r="W81" s="5">
-        <f>V81-U81</f>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
     </row>
@@ -58621,7 +58622,7 @@
         <v>4000</v>
       </c>
       <c r="W82" s="5">
-        <f>V82-U82</f>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
     </row>
@@ -58693,7 +58694,7 @@
         <v>9300</v>
       </c>
       <c r="W83" s="5">
-        <f>V83-U83</f>
+        <f t="shared" si="1"/>
         <v>3800</v>
       </c>
     </row>
@@ -58765,7 +58766,7 @@
         <v>3400</v>
       </c>
       <c r="W84" s="5">
-        <f>V84-U84</f>
+        <f t="shared" si="1"/>
         <v>3400</v>
       </c>
     </row>
@@ -58837,7 +58838,7 @@
         <v>5400</v>
       </c>
       <c r="W85" s="5">
-        <f>V85-U85</f>
+        <f t="shared" si="1"/>
         <v>2700</v>
       </c>
     </row>
@@ -58909,7 +58910,7 @@
         <v>3400</v>
       </c>
       <c r="W86" s="5">
-        <f>V86-U86</f>
+        <f t="shared" si="1"/>
         <v>2700</v>
       </c>
     </row>
@@ -58981,7 +58982,7 @@
         <v>4200</v>
       </c>
       <c r="W87" s="5">
-        <f>V87-U87</f>
+        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
     </row>
@@ -59053,7 +59054,7 @@
         <v>2300</v>
       </c>
       <c r="W88" s="5">
-        <f>V88-U88</f>
+        <f t="shared" si="1"/>
         <v>2300</v>
       </c>
     </row>
@@ -59125,7 +59126,7 @@
         <v>3900</v>
       </c>
       <c r="W89" s="5">
-        <f>V89-U89</f>
+        <f t="shared" si="1"/>
         <v>2100</v>
       </c>
     </row>
@@ -59197,7 +59198,7 @@
         <v>4200</v>
       </c>
       <c r="W90" s="5">
-        <f>V90-U90</f>
+        <f t="shared" si="1"/>
         <v>2100</v>
       </c>
     </row>
@@ -59269,7 +59270,7 @@
         <v>2000</v>
       </c>
       <c r="W91" s="5">
-        <f>V91-U91</f>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
     </row>
@@ -59341,7 +59342,7 @@
         <v>1800</v>
       </c>
       <c r="W92" s="5">
-        <f>V92-U92</f>
+        <f t="shared" si="1"/>
         <v>1800</v>
       </c>
     </row>
@@ -59413,7 +59414,7 @@
         <v>1000</v>
       </c>
       <c r="W93" s="5">
-        <f>V93-U93</f>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
     </row>
@@ -59485,7 +59486,7 @@
         <v>500</v>
       </c>
       <c r="W94" s="5">
-        <f>V94-U94</f>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
     </row>
@@ -59557,7 +59558,7 @@
         <v>2000</v>
       </c>
       <c r="W95" s="5">
-        <f>V95-U95</f>
+        <f t="shared" si="1"/>
         <v>400</v>
       </c>
     </row>
@@ -59629,7 +59630,7 @@
         <v>0</v>
       </c>
       <c r="W96" s="5">
-        <f>V96-U96</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -59701,7 +59702,7 @@
         <v>0</v>
       </c>
       <c r="W97" s="5">
-        <f>V97-U97</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -59773,7 +59774,7 @@
         <v>0</v>
       </c>
       <c r="W98" s="5">
-        <f>V98-U98</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -59845,7 +59846,7 @@
         <v>0</v>
       </c>
       <c r="W99" s="5">
-        <f>V99-U99</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -59917,7 +59918,7 @@
         <v>0</v>
       </c>
       <c r="W100" s="5">
-        <f>V100-U100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -59989,7 +59990,7 @@
         <v>0</v>
       </c>
       <c r="W101" s="5">
-        <f>V101-U101</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -60061,7 +60062,7 @@
         <v>0</v>
       </c>
       <c r="W102" s="5">
-        <f>V102-U102</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -60133,7 +60134,7 @@
         <v>0</v>
       </c>
       <c r="W103" s="5">
-        <f>V103-U103</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -60205,7 +60206,7 @@
         <v>0</v>
       </c>
       <c r="W104" s="5">
-        <f>V104-U104</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -60277,7 +60278,7 @@
         <v>0</v>
       </c>
       <c r="W105" s="5">
-        <f>V105-U105</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -60349,7 +60350,7 @@
         <v>0</v>
       </c>
       <c r="W106" s="5">
-        <f>V106-U106</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -60421,7 +60422,7 @@
         <v>0</v>
       </c>
       <c r="W107" s="5">
-        <f>V107-U107</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -60493,7 +60494,7 @@
         <v>0</v>
       </c>
       <c r="W108" s="5">
-        <f>V108-U108</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -60565,7 +60566,7 @@
         <v>0</v>
       </c>
       <c r="W109" s="5">
-        <f>V109-U109</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -60637,7 +60638,7 @@
         <v>0</v>
       </c>
       <c r="W110" s="5">
-        <f>V110-U110</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -60709,7 +60710,7 @@
         <v>0</v>
       </c>
       <c r="W111" s="5">
-        <f>V111-U111</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -60781,7 +60782,7 @@
         <v>0</v>
       </c>
       <c r="W112" s="5">
-        <f>V112-U112</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -60853,7 +60854,7 @@
         <v>0</v>
       </c>
       <c r="W113" s="5">
-        <f>V113-U113</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -60925,7 +60926,7 @@
         <v>0</v>
       </c>
       <c r="W114" s="5">
-        <f>V114-U114</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -60997,7 +60998,7 @@
         <v>0</v>
       </c>
       <c r="W115" s="5">
-        <f>V115-U115</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -61069,7 +61070,7 @@
         <v>0</v>
       </c>
       <c r="W116" s="5">
-        <f>V116-U116</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -61141,7 +61142,7 @@
         <v>0</v>
       </c>
       <c r="W117" s="5">
-        <f>V117-U117</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -61213,7 +61214,7 @@
         <v>0</v>
       </c>
       <c r="W118" s="5">
-        <f>V118-U118</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -61285,7 +61286,7 @@
         <v>0</v>
       </c>
       <c r="W119" s="5">
-        <f>V119-U119</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -61357,7 +61358,7 @@
         <v>0</v>
       </c>
       <c r="W120" s="5">
-        <f>V120-U120</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -61429,7 +61430,7 @@
         <v>0</v>
       </c>
       <c r="W121" s="5">
-        <f>V121-U121</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -61501,7 +61502,7 @@
         <v>0</v>
       </c>
       <c r="W122" s="5">
-        <f>V122-U122</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -61573,7 +61574,7 @@
         <v>0</v>
       </c>
       <c r="W123" s="5">
-        <f>V123-U123</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -61645,7 +61646,7 @@
         <v>0</v>
       </c>
       <c r="W124" s="5">
-        <f>V124-U124</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -61717,7 +61718,7 @@
         <v>0</v>
       </c>
       <c r="W125" s="5">
-        <f>V125-U125</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -61789,7 +61790,7 @@
         <v>0</v>
       </c>
       <c r="W126" s="5">
-        <f>V126-U126</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -61861,7 +61862,7 @@
         <v>0</v>
       </c>
       <c r="W127" s="5">
-        <f>V127-U127</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -61933,7 +61934,7 @@
         <v>0</v>
       </c>
       <c r="W128" s="5">
-        <f>V128-U128</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -62005,7 +62006,7 @@
         <v>0</v>
       </c>
       <c r="W129" s="5">
-        <f>V129-U129</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -62077,7 +62078,7 @@
         <v>0</v>
       </c>
       <c r="W130" s="5">
-        <f>V130-U130</f>
+        <f t="shared" ref="W130:W193" si="2">V130-U130</f>
         <v>0</v>
       </c>
     </row>
@@ -62149,7 +62150,7 @@
         <v>0</v>
       </c>
       <c r="W131" s="5">
-        <f>V131-U131</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -62221,7 +62222,7 @@
         <v>0</v>
       </c>
       <c r="W132" s="5">
-        <f>V132-U132</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -62293,7 +62294,7 @@
         <v>0</v>
       </c>
       <c r="W133" s="5">
-        <f>V133-U133</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -62365,7 +62366,7 @@
         <v>0</v>
       </c>
       <c r="W134" s="5">
-        <f>V134-U134</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -62437,7 +62438,7 @@
         <v>0</v>
       </c>
       <c r="W135" s="5">
-        <f>V135-U135</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -62509,7 +62510,7 @@
         <v>0</v>
       </c>
       <c r="W136" s="5">
-        <f>V136-U136</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -62581,7 +62582,7 @@
         <v>0</v>
       </c>
       <c r="W137" s="5">
-        <f>V137-U137</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -62653,7 +62654,7 @@
         <v>0</v>
       </c>
       <c r="W138" s="5">
-        <f>V138-U138</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -62725,7 +62726,7 @@
         <v>0</v>
       </c>
       <c r="W139" s="5">
-        <f>V139-U139</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -62797,7 +62798,7 @@
         <v>0</v>
       </c>
       <c r="W140" s="5">
-        <f>V140-U140</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -62869,7 +62870,7 @@
         <v>0</v>
       </c>
       <c r="W141" s="5">
-        <f>V141-U141</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -62941,7 +62942,7 @@
         <v>0</v>
       </c>
       <c r="W142" s="5">
-        <f>V142-U142</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -63013,7 +63014,7 @@
         <v>0</v>
       </c>
       <c r="W143" s="5">
-        <f>V143-U143</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -63085,7 +63086,7 @@
         <v>0</v>
       </c>
       <c r="W144" s="5">
-        <f>V144-U144</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -63157,7 +63158,7 @@
         <v>0</v>
       </c>
       <c r="W145" s="5">
-        <f>V145-U145</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -63229,7 +63230,7 @@
         <v>0</v>
       </c>
       <c r="W146" s="5">
-        <f>V146-U146</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -63301,7 +63302,7 @@
         <v>0</v>
       </c>
       <c r="W147" s="5">
-        <f>V147-U147</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -63373,7 +63374,7 @@
         <v>0</v>
       </c>
       <c r="W148" s="5">
-        <f>V148-U148</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -63445,7 +63446,7 @@
         <v>0</v>
       </c>
       <c r="W149" s="5">
-        <f>V149-U149</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -63517,7 +63518,7 @@
         <v>0</v>
       </c>
       <c r="W150" s="5">
-        <f>V150-U150</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -63589,7 +63590,7 @@
         <v>0</v>
       </c>
       <c r="W151" s="5">
-        <f>V151-U151</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -63661,7 +63662,7 @@
         <v>0</v>
       </c>
       <c r="W152" s="5">
-        <f>V152-U152</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -63733,7 +63734,7 @@
         <v>0</v>
       </c>
       <c r="W153" s="5">
-        <f>V153-U153</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -63805,7 +63806,7 @@
         <v>0</v>
       </c>
       <c r="W154" s="5">
-        <f>V154-U154</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -63877,7 +63878,7 @@
         <v>0</v>
       </c>
       <c r="W155" s="5">
-        <f>V155-U155</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -63949,7 +63950,7 @@
         <v>0</v>
       </c>
       <c r="W156" s="5">
-        <f>V156-U156</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -64021,7 +64022,7 @@
         <v>0</v>
       </c>
       <c r="W157" s="5">
-        <f>V157-U157</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -64093,7 +64094,7 @@
         <v>0</v>
       </c>
       <c r="W158" s="5">
-        <f>V158-U158</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -64165,7 +64166,7 @@
         <v>0</v>
       </c>
       <c r="W159" s="5">
-        <f>V159-U159</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -64237,7 +64238,7 @@
         <v>0</v>
       </c>
       <c r="W160" s="5">
-        <f>V160-U160</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -64309,7 +64310,7 @@
         <v>0</v>
       </c>
       <c r="W161" s="5">
-        <f>V161-U161</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -64381,7 +64382,7 @@
         <v>0</v>
       </c>
       <c r="W162" s="5">
-        <f>V162-U162</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -64453,7 +64454,7 @@
         <v>0</v>
       </c>
       <c r="W163" s="5">
-        <f>V163-U163</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -64525,7 +64526,7 @@
         <v>0</v>
       </c>
       <c r="W164" s="5">
-        <f>V164-U164</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -64597,7 +64598,7 @@
         <v>0</v>
       </c>
       <c r="W165" s="5">
-        <f>V165-U165</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -64669,7 +64670,7 @@
         <v>0</v>
       </c>
       <c r="W166" s="5">
-        <f>V166-U166</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -64741,7 +64742,7 @@
         <v>0</v>
       </c>
       <c r="W167" s="5">
-        <f>V167-U167</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -64813,7 +64814,7 @@
         <v>0</v>
       </c>
       <c r="W168" s="5">
-        <f>V168-U168</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -64885,7 +64886,7 @@
         <v>0</v>
       </c>
       <c r="W169" s="5">
-        <f>V169-U169</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -64957,7 +64958,7 @@
         <v>0</v>
       </c>
       <c r="W170" s="5">
-        <f>V170-U170</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -65029,7 +65030,7 @@
         <v>0</v>
       </c>
       <c r="W171" s="5">
-        <f>V171-U171</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -65101,7 +65102,7 @@
         <v>0</v>
       </c>
       <c r="W172" s="5">
-        <f>V172-U172</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -65173,7 +65174,7 @@
         <v>4100</v>
       </c>
       <c r="W173" s="5">
-        <f>V173-U173</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -65245,7 +65246,7 @@
         <v>0</v>
       </c>
       <c r="W174" s="5">
-        <f>V174-U174</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -65317,7 +65318,7 @@
         <v>0</v>
       </c>
       <c r="W175" s="5">
-        <f>V175-U175</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -65389,7 +65390,7 @@
         <v>0</v>
       </c>
       <c r="W176" s="5">
-        <f>V176-U176</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -65461,7 +65462,7 @@
         <v>0</v>
       </c>
       <c r="W177" s="5">
-        <f>V177-U177</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -65533,7 +65534,7 @@
         <v>0</v>
       </c>
       <c r="W178" s="5">
-        <f>V178-U178</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -65605,7 +65606,7 @@
         <v>0</v>
       </c>
       <c r="W179" s="5">
-        <f>V179-U179</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -65677,7 +65678,7 @@
         <v>0</v>
       </c>
       <c r="W180" s="5">
-        <f>V180-U180</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -65749,7 +65750,7 @@
         <v>0</v>
       </c>
       <c r="W181" s="5">
-        <f>V181-U181</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -65821,7 +65822,7 @@
         <v>0</v>
       </c>
       <c r="W182" s="5">
-        <f>V182-U182</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -65893,7 +65894,7 @@
         <v>0</v>
       </c>
       <c r="W183" s="5">
-        <f>V183-U183</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -65965,7 +65966,7 @@
         <v>0</v>
       </c>
       <c r="W184" s="5">
-        <f>V184-U184</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -66037,7 +66038,7 @@
         <v>0</v>
       </c>
       <c r="W185" s="5">
-        <f>V185-U185</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -66109,7 +66110,7 @@
         <v>0</v>
       </c>
       <c r="W186" s="5">
-        <f>V186-U186</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -66181,7 +66182,7 @@
         <v>0</v>
       </c>
       <c r="W187" s="5">
-        <f>V187-U187</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -66253,7 +66254,7 @@
         <v>0</v>
       </c>
       <c r="W188" s="5">
-        <f>V188-U188</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -66325,7 +66326,7 @@
         <v>0</v>
       </c>
       <c r="W189" s="5">
-        <f>V189-U189</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -66397,7 +66398,7 @@
         <v>0</v>
       </c>
       <c r="W190" s="5">
-        <f>V190-U190</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -66469,7 +66470,7 @@
         <v>0</v>
       </c>
       <c r="W191" s="5">
-        <f>V191-U191</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -66541,7 +66542,7 @@
         <v>0</v>
       </c>
       <c r="W192" s="5">
-        <f>V192-U192</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -66613,7 +66614,7 @@
         <v>0</v>
       </c>
       <c r="W193" s="5">
-        <f>V193-U193</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -66685,7 +66686,7 @@
         <v>0</v>
       </c>
       <c r="W194" s="5">
-        <f>V194-U194</f>
+        <f t="shared" ref="W194:W257" si="3">V194-U194</f>
         <v>0</v>
       </c>
     </row>
@@ -66757,7 +66758,7 @@
         <v>0</v>
       </c>
       <c r="W195" s="5">
-        <f>V195-U195</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -66829,7 +66830,7 @@
         <v>0</v>
       </c>
       <c r="W196" s="5">
-        <f>V196-U196</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -66901,7 +66902,7 @@
         <v>0</v>
       </c>
       <c r="W197" s="5">
-        <f>V197-U197</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -66973,7 +66974,7 @@
         <v>0</v>
       </c>
       <c r="W198" s="5">
-        <f>V198-U198</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -67045,7 +67046,7 @@
         <v>0</v>
       </c>
       <c r="W199" s="5">
-        <f>V199-U199</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -67117,7 +67118,7 @@
         <v>0</v>
       </c>
       <c r="W200" s="5">
-        <f>V200-U200</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -67189,7 +67190,7 @@
         <v>0</v>
       </c>
       <c r="W201" s="5">
-        <f>V201-U201</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -67261,7 +67262,7 @@
         <v>0</v>
       </c>
       <c r="W202" s="5">
-        <f>V202-U202</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -67333,7 +67334,7 @@
         <v>0</v>
       </c>
       <c r="W203" s="5">
-        <f>V203-U203</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -67405,7 +67406,7 @@
         <v>0</v>
       </c>
       <c r="W204" s="5">
-        <f>V204-U204</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -67477,7 +67478,7 @@
         <v>0</v>
       </c>
       <c r="W205" s="5">
-        <f>V205-U205</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -67549,7 +67550,7 @@
         <v>0</v>
       </c>
       <c r="W206" s="5">
-        <f>V206-U206</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -67621,7 +67622,7 @@
         <v>0</v>
       </c>
       <c r="W207" s="5">
-        <f>V207-U207</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -67693,7 +67694,7 @@
         <v>0</v>
       </c>
       <c r="W208" s="5">
-        <f>V208-U208</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -67765,7 +67766,7 @@
         <v>0</v>
       </c>
       <c r="W209" s="5">
-        <f>V209-U209</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -67837,7 +67838,7 @@
         <v>0</v>
       </c>
       <c r="W210" s="5">
-        <f>V210-U210</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -67909,7 +67910,7 @@
         <v>0</v>
       </c>
       <c r="W211" s="5">
-        <f>V211-U211</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -67981,7 +67982,7 @@
         <v>0</v>
       </c>
       <c r="W212" s="5">
-        <f>V212-U212</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -68053,7 +68054,7 @@
         <v>0</v>
       </c>
       <c r="W213" s="5">
-        <f>V213-U213</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -68125,7 +68126,7 @@
         <v>0</v>
       </c>
       <c r="W214" s="5">
-        <f>V214-U214</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -68197,7 +68198,7 @@
         <v>0</v>
       </c>
       <c r="W215" s="5">
-        <f>V215-U215</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -68269,7 +68270,7 @@
         <v>0</v>
       </c>
       <c r="W216" s="5">
-        <f>V216-U216</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -68341,7 +68342,7 @@
         <v>0</v>
       </c>
       <c r="W217" s="5">
-        <f>V217-U217</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -68413,7 +68414,7 @@
         <v>0</v>
       </c>
       <c r="W218" s="5">
-        <f>V218-U218</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -68485,7 +68486,7 @@
         <v>0</v>
       </c>
       <c r="W219" s="5">
-        <f>V219-U219</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -68557,7 +68558,7 @@
         <v>0</v>
       </c>
       <c r="W220" s="5">
-        <f>V220-U220</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -68629,7 +68630,7 @@
         <v>0</v>
       </c>
       <c r="W221" s="5">
-        <f>V221-U221</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -68701,7 +68702,7 @@
         <v>0</v>
       </c>
       <c r="W222" s="5">
-        <f>V222-U222</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -68773,7 +68774,7 @@
         <v>0</v>
       </c>
       <c r="W223" s="5">
-        <f>V223-U223</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -68845,7 +68846,7 @@
         <v>0</v>
       </c>
       <c r="W224" s="5">
-        <f>V224-U224</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -68917,7 +68918,7 @@
         <v>130000</v>
       </c>
       <c r="W225" s="5">
-        <f>V225-U225</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -68989,7 +68990,7 @@
         <v>0</v>
       </c>
       <c r="W226" s="5">
-        <f>V226-U226</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -69061,7 +69062,7 @@
         <v>0</v>
       </c>
       <c r="W227" s="5">
-        <f>V227-U227</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -69133,7 +69134,7 @@
         <v>0</v>
       </c>
       <c r="W228" s="5">
-        <f>V228-U228</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -69205,7 +69206,7 @@
         <v>0</v>
       </c>
       <c r="W229" s="5">
-        <f>V229-U229</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -69277,7 +69278,7 @@
         <v>0</v>
       </c>
       <c r="W230" s="5">
-        <f>V230-U230</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -69349,7 +69350,7 @@
         <v>0</v>
       </c>
       <c r="W231" s="5">
-        <f>V231-U231</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -69421,7 +69422,7 @@
         <v>0</v>
       </c>
       <c r="W232" s="5">
-        <f>V232-U232</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -69493,7 +69494,7 @@
         <v>0</v>
       </c>
       <c r="W233" s="5">
-        <f>V233-U233</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -69565,7 +69566,7 @@
         <v>0</v>
       </c>
       <c r="W234" s="5">
-        <f>V234-U234</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -69637,7 +69638,7 @@
         <v>0</v>
       </c>
       <c r="W235" s="5">
-        <f>V235-U235</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -69709,7 +69710,7 @@
         <v>0</v>
       </c>
       <c r="W236" s="5">
-        <f>V236-U236</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -69781,7 +69782,7 @@
         <v>0</v>
       </c>
       <c r="W237" s="5">
-        <f>V237-U237</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -69853,7 +69854,7 @@
         <v>0</v>
       </c>
       <c r="W238" s="5">
-        <f>V238-U238</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -69925,7 +69926,7 @@
         <v>0</v>
       </c>
       <c r="W239" s="5">
-        <f>V239-U239</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -69997,7 +69998,7 @@
         <v>0</v>
       </c>
       <c r="W240" s="5">
-        <f>V240-U240</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -70069,7 +70070,7 @@
         <v>0</v>
       </c>
       <c r="W241" s="5">
-        <f>V241-U241</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -70141,7 +70142,7 @@
         <v>0</v>
       </c>
       <c r="W242" s="5">
-        <f>V242-U242</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -70213,7 +70214,7 @@
         <v>0</v>
       </c>
       <c r="W243" s="5">
-        <f>V243-U243</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -70285,7 +70286,7 @@
         <v>0</v>
       </c>
       <c r="W244" s="5">
-        <f>V244-U244</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -70357,7 +70358,7 @@
         <v>0</v>
       </c>
       <c r="W245" s="5">
-        <f>V245-U245</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -70429,7 +70430,7 @@
         <v>0</v>
       </c>
       <c r="W246" s="5">
-        <f>V246-U246</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -70501,7 +70502,7 @@
         <v>0</v>
       </c>
       <c r="W247" s="5">
-        <f>V247-U247</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -70573,7 +70574,7 @@
         <v>0</v>
       </c>
       <c r="W248" s="5">
-        <f>V248-U248</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -70645,7 +70646,7 @@
         <v>0</v>
       </c>
       <c r="W249" s="5">
-        <f>V249-U249</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -70717,7 +70718,7 @@
         <v>0</v>
       </c>
       <c r="W250" s="5">
-        <f>V250-U250</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -70789,7 +70790,7 @@
         <v>0</v>
       </c>
       <c r="W251" s="5">
-        <f>V251-U251</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -70861,7 +70862,7 @@
         <v>0</v>
       </c>
       <c r="W252" s="5">
-        <f>V252-U252</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -70933,7 +70934,7 @@
         <v>0</v>
       </c>
       <c r="W253" s="5">
-        <f>V253-U253</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -71005,7 +71006,7 @@
         <v>0</v>
       </c>
       <c r="W254" s="5">
-        <f>V254-U254</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -71077,7 +71078,7 @@
         <v>0</v>
       </c>
       <c r="W255" s="5">
-        <f>V255-U255</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -71149,7 +71150,7 @@
         <v>0</v>
       </c>
       <c r="W256" s="5">
-        <f>V256-U256</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -71221,7 +71222,7 @@
         <v>0</v>
       </c>
       <c r="W257" s="5">
-        <f>V257-U257</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -71293,7 +71294,7 @@
         <v>0</v>
       </c>
       <c r="W258" s="5">
-        <f>V258-U258</f>
+        <f t="shared" ref="W258:W321" si="4">V258-U258</f>
         <v>0</v>
       </c>
     </row>
@@ -71365,7 +71366,7 @@
         <v>0</v>
       </c>
       <c r="W259" s="5">
-        <f>V259-U259</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -71437,7 +71438,7 @@
         <v>0</v>
       </c>
       <c r="W260" s="5">
-        <f>V260-U260</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -71509,7 +71510,7 @@
         <v>0</v>
       </c>
       <c r="W261" s="5">
-        <f>V261-U261</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -71581,7 +71582,7 @@
         <v>0</v>
       </c>
       <c r="W262" s="5">
-        <f>V262-U262</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -71653,7 +71654,7 @@
         <v>0</v>
       </c>
       <c r="W263" s="5">
-        <f>V263-U263</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -71725,7 +71726,7 @@
         <v>0</v>
       </c>
       <c r="W264" s="5">
-        <f>V264-U264</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -71797,7 +71798,7 @@
         <v>0</v>
       </c>
       <c r="W265" s="5">
-        <f>V265-U265</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -71869,7 +71870,7 @@
         <v>0</v>
       </c>
       <c r="W266" s="5">
-        <f>V266-U266</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -71941,7 +71942,7 @@
         <v>0</v>
       </c>
       <c r="W267" s="5">
-        <f>V267-U267</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -72013,7 +72014,7 @@
         <v>0</v>
       </c>
       <c r="W268" s="5">
-        <f>V268-U268</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -72085,7 +72086,7 @@
         <v>0</v>
       </c>
       <c r="W269" s="5">
-        <f>V269-U269</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -72157,7 +72158,7 @@
         <v>0</v>
       </c>
       <c r="W270" s="5">
-        <f>V270-U270</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -72229,7 +72230,7 @@
         <v>0</v>
       </c>
       <c r="W271" s="5">
-        <f>V271-U271</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -72301,7 +72302,7 @@
         <v>0</v>
       </c>
       <c r="W272" s="5">
-        <f>V272-U272</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -72373,7 +72374,7 @@
         <v>0</v>
       </c>
       <c r="W273" s="5">
-        <f>V273-U273</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -72445,7 +72446,7 @@
         <v>0</v>
       </c>
       <c r="W274" s="5">
-        <f>V274-U274</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -72517,7 +72518,7 @@
         <v>0</v>
       </c>
       <c r="W275" s="5">
-        <f>V275-U275</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -72589,7 +72590,7 @@
         <v>0</v>
       </c>
       <c r="W276" s="5">
-        <f>V276-U276</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -72661,7 +72662,7 @@
         <v>0</v>
       </c>
       <c r="W277" s="5">
-        <f>V277-U277</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -72733,7 +72734,7 @@
         <v>0</v>
       </c>
       <c r="W278" s="5">
-        <f>V278-U278</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -72805,7 +72806,7 @@
         <v>0</v>
       </c>
       <c r="W279" s="5">
-        <f>V279-U279</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -72877,7 +72878,7 @@
         <v>0</v>
       </c>
       <c r="W280" s="5">
-        <f>V280-U280</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -72949,7 +72950,7 @@
         <v>0</v>
       </c>
       <c r="W281" s="5">
-        <f>V281-U281</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -73021,7 +73022,7 @@
         <v>0</v>
       </c>
       <c r="W282" s="5">
-        <f>V282-U282</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -73093,7 +73094,7 @@
         <v>0</v>
       </c>
       <c r="W283" s="5">
-        <f>V283-U283</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -73165,7 +73166,7 @@
         <v>0</v>
       </c>
       <c r="W284" s="5">
-        <f>V284-U284</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -73237,7 +73238,7 @@
         <v>0</v>
       </c>
       <c r="W285" s="5">
-        <f>V285-U285</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -73309,7 +73310,7 @@
         <v>0</v>
       </c>
       <c r="W286" s="5">
-        <f>V286-U286</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -73381,7 +73382,7 @@
         <v>0</v>
       </c>
       <c r="W287" s="5">
-        <f>V287-U287</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -73453,7 +73454,7 @@
         <v>0</v>
       </c>
       <c r="W288" s="5">
-        <f>V288-U288</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -73525,7 +73526,7 @@
         <v>0</v>
       </c>
       <c r="W289" s="5">
-        <f>V289-U289</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -73597,7 +73598,7 @@
         <v>0</v>
       </c>
       <c r="W290" s="5">
-        <f>V290-U290</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -73669,7 +73670,7 @@
         <v>0</v>
       </c>
       <c r="W291" s="5">
-        <f>V291-U291</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -73741,7 +73742,7 @@
         <v>0</v>
       </c>
       <c r="W292" s="5">
-        <f>V292-U292</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -73813,7 +73814,7 @@
         <v>0</v>
       </c>
       <c r="W293" s="5">
-        <f>V293-U293</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -73885,7 +73886,7 @@
         <v>0</v>
       </c>
       <c r="W294" s="5">
-        <f>V294-U294</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -73957,7 +73958,7 @@
         <v>0</v>
       </c>
       <c r="W295" s="5">
-        <f>V295-U295</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -74029,7 +74030,7 @@
         <v>0</v>
       </c>
       <c r="W296" s="5">
-        <f>V296-U296</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -74101,7 +74102,7 @@
         <v>0</v>
       </c>
       <c r="W297" s="5">
-        <f>V297-U297</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -74173,7 +74174,7 @@
         <v>0</v>
       </c>
       <c r="W298" s="5">
-        <f>V298-U298</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -74245,7 +74246,7 @@
         <v>0</v>
       </c>
       <c r="W299" s="5">
-        <f>V299-U299</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -74317,7 +74318,7 @@
         <v>0</v>
       </c>
       <c r="W300" s="5">
-        <f>V300-U300</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -74389,7 +74390,7 @@
         <v>0</v>
       </c>
       <c r="W301" s="5">
-        <f>V301-U301</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -74461,7 +74462,7 @@
         <v>0</v>
       </c>
       <c r="W302" s="5">
-        <f>V302-U302</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -74533,7 +74534,7 @@
         <v>0</v>
       </c>
       <c r="W303" s="5">
-        <f>V303-U303</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -74605,7 +74606,7 @@
         <v>0</v>
       </c>
       <c r="W304" s="5">
-        <f>V304-U304</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -74677,7 +74678,7 @@
         <v>0</v>
       </c>
       <c r="W305" s="5">
-        <f>V305-U305</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -74749,7 +74750,7 @@
         <v>0</v>
       </c>
       <c r="W306" s="5">
-        <f>V306-U306</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -74821,7 +74822,7 @@
         <v>0</v>
       </c>
       <c r="W307" s="5">
-        <f>V307-U307</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -74893,7 +74894,7 @@
         <v>0</v>
       </c>
       <c r="W308" s="5">
-        <f>V308-U308</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -74965,7 +74966,7 @@
         <v>0</v>
       </c>
       <c r="W309" s="5">
-        <f>V309-U309</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -75037,7 +75038,7 @@
         <v>0</v>
       </c>
       <c r="W310" s="5">
-        <f>V310-U310</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -75109,7 +75110,7 @@
         <v>0</v>
       </c>
       <c r="W311" s="5">
-        <f>V311-U311</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -75181,7 +75182,7 @@
         <v>0</v>
       </c>
       <c r="W312" s="5">
-        <f>V312-U312</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -75253,7 +75254,7 @@
         <v>0</v>
       </c>
       <c r="W313" s="5">
-        <f>V313-U313</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -75325,7 +75326,7 @@
         <v>0</v>
       </c>
       <c r="W314" s="5">
-        <f>V314-U314</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -75397,7 +75398,7 @@
         <v>0</v>
       </c>
       <c r="W315" s="5">
-        <f>V315-U315</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -75469,7 +75470,7 @@
         <v>0</v>
       </c>
       <c r="W316" s="5">
-        <f>V316-U316</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -75541,7 +75542,7 @@
         <v>0</v>
       </c>
       <c r="W317" s="5">
-        <f>V317-U317</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -75613,7 +75614,7 @@
         <v>0</v>
       </c>
       <c r="W318" s="5">
-        <f>V318-U318</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -75685,7 +75686,7 @@
         <v>0</v>
       </c>
       <c r="W319" s="5">
-        <f>V319-U319</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -75757,7 +75758,7 @@
         <v>0</v>
       </c>
       <c r="W320" s="5">
-        <f>V320-U320</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -75829,7 +75830,7 @@
         <v>0</v>
       </c>
       <c r="W321" s="5">
-        <f>V321-U321</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -75901,7 +75902,7 @@
         <v>0</v>
       </c>
       <c r="W322" s="5">
-        <f>V322-U322</f>
+        <f t="shared" ref="W322:W385" si="5">V322-U322</f>
         <v>0</v>
       </c>
     </row>
@@ -75973,7 +75974,7 @@
         <v>0</v>
       </c>
       <c r="W323" s="5">
-        <f>V323-U323</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -76045,7 +76046,7 @@
         <v>0</v>
       </c>
       <c r="W324" s="5">
-        <f>V324-U324</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -76117,7 +76118,7 @@
         <v>0</v>
       </c>
       <c r="W325" s="5">
-        <f>V325-U325</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -76189,7 +76190,7 @@
         <v>0</v>
       </c>
       <c r="W326" s="5">
-        <f>V326-U326</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -76261,7 +76262,7 @@
         <v>0</v>
       </c>
       <c r="W327" s="5">
-        <f>V327-U327</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -76333,7 +76334,7 @@
         <v>0</v>
       </c>
       <c r="W328" s="5">
-        <f>V328-U328</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -76405,7 +76406,7 @@
         <v>0</v>
       </c>
       <c r="W329" s="5">
-        <f>V329-U329</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -76477,7 +76478,7 @@
         <v>0</v>
       </c>
       <c r="W330" s="5">
-        <f>V330-U330</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -76549,7 +76550,7 @@
         <v>0</v>
       </c>
       <c r="W331" s="5">
-        <f>V331-U331</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -76621,7 +76622,7 @@
         <v>0</v>
       </c>
       <c r="W332" s="5">
-        <f>V332-U332</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -76693,7 +76694,7 @@
         <v>0</v>
       </c>
       <c r="W333" s="5">
-        <f>V333-U333</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -76765,7 +76766,7 @@
         <v>0</v>
       </c>
       <c r="W334" s="5">
-        <f>V334-U334</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -76837,7 +76838,7 @@
         <v>0</v>
       </c>
       <c r="W335" s="5">
-        <f>V335-U335</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -76909,7 +76910,7 @@
         <v>0</v>
       </c>
       <c r="W336" s="5">
-        <f>V336-U336</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -76981,7 +76982,7 @@
         <v>0</v>
       </c>
       <c r="W337" s="5">
-        <f>V337-U337</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -77053,7 +77054,7 @@
         <v>0</v>
       </c>
       <c r="W338" s="5">
-        <f>V338-U338</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -77125,7 +77126,7 @@
         <v>0</v>
       </c>
       <c r="W339" s="5">
-        <f>V339-U339</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -77197,7 +77198,7 @@
         <v>0</v>
       </c>
       <c r="W340" s="5">
-        <f>V340-U340</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -77269,7 +77270,7 @@
         <v>0</v>
       </c>
       <c r="W341" s="5">
-        <f>V341-U341</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -77341,7 +77342,7 @@
         <v>0</v>
       </c>
       <c r="W342" s="5">
-        <f>V342-U342</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -77413,7 +77414,7 @@
         <v>0</v>
       </c>
       <c r="W343" s="5">
-        <f>V343-U343</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -77485,7 +77486,7 @@
         <v>0</v>
       </c>
       <c r="W344" s="5">
-        <f>V344-U344</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -77557,7 +77558,7 @@
         <v>0</v>
       </c>
       <c r="W345" s="5">
-        <f>V345-U345</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -77629,7 +77630,7 @@
         <v>0</v>
       </c>
       <c r="W346" s="5">
-        <f>V346-U346</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -77701,7 +77702,7 @@
         <v>0</v>
       </c>
       <c r="W347" s="5">
-        <f>V347-U347</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -77773,7 +77774,7 @@
         <v>0</v>
       </c>
       <c r="W348" s="5">
-        <f>V348-U348</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -77845,7 +77846,7 @@
         <v>0</v>
       </c>
       <c r="W349" s="5">
-        <f>V349-U349</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -77917,7 +77918,7 @@
         <v>0</v>
       </c>
       <c r="W350" s="5">
-        <f>V350-U350</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -77989,7 +77990,7 @@
         <v>0</v>
       </c>
       <c r="W351" s="5">
-        <f>V351-U351</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -78061,7 +78062,7 @@
         <v>0</v>
       </c>
       <c r="W352" s="5">
-        <f>V352-U352</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -78133,7 +78134,7 @@
         <v>0</v>
       </c>
       <c r="W353" s="5">
-        <f>V353-U353</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -78205,7 +78206,7 @@
         <v>0</v>
       </c>
       <c r="W354" s="5">
-        <f>V354-U354</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -78277,7 +78278,7 @@
         <v>0</v>
       </c>
       <c r="W355" s="5">
-        <f>V355-U355</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -78349,7 +78350,7 @@
         <v>0</v>
       </c>
       <c r="W356" s="5">
-        <f>V356-U356</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -78421,7 +78422,7 @@
         <v>0</v>
       </c>
       <c r="W357" s="5">
-        <f>V357-U357</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -78493,7 +78494,7 @@
         <v>0</v>
       </c>
       <c r="W358" s="5">
-        <f>V358-U358</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -78565,7 +78566,7 @@
         <v>0</v>
       </c>
       <c r="W359" s="5">
-        <f>V359-U359</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -78637,7 +78638,7 @@
         <v>0</v>
       </c>
       <c r="W360" s="5">
-        <f>V360-U360</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -78709,7 +78710,7 @@
         <v>0</v>
       </c>
       <c r="W361" s="5">
-        <f>V361-U361</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -78781,7 +78782,7 @@
         <v>0</v>
       </c>
       <c r="W362" s="5">
-        <f>V362-U362</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -78853,7 +78854,7 @@
         <v>0</v>
       </c>
       <c r="W363" s="5">
-        <f>V363-U363</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -78925,7 +78926,7 @@
         <v>0</v>
       </c>
       <c r="W364" s="5">
-        <f>V364-U364</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -78997,7 +78998,7 @@
         <v>0</v>
       </c>
       <c r="W365" s="5">
-        <f>V365-U365</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -79069,7 +79070,7 @@
         <v>0</v>
       </c>
       <c r="W366" s="5">
-        <f>V366-U366</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -79141,7 +79142,7 @@
         <v>0</v>
       </c>
       <c r="W367" s="5">
-        <f>V367-U367</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -79213,7 +79214,7 @@
         <v>0</v>
       </c>
       <c r="W368" s="5">
-        <f>V368-U368</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -79285,7 +79286,7 @@
         <v>0</v>
       </c>
       <c r="W369" s="5">
-        <f>V369-U369</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -79357,7 +79358,7 @@
         <v>0</v>
       </c>
       <c r="W370" s="5">
-        <f>V370-U370</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -79429,7 +79430,7 @@
         <v>0</v>
       </c>
       <c r="W371" s="5">
-        <f>V371-U371</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -79501,7 +79502,7 @@
         <v>0</v>
       </c>
       <c r="W372" s="5">
-        <f>V372-U372</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -79573,7 +79574,7 @@
         <v>0</v>
       </c>
       <c r="W373" s="5">
-        <f>V373-U373</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -79645,7 +79646,7 @@
         <v>0</v>
       </c>
       <c r="W374" s="5">
-        <f>V374-U374</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -79717,7 +79718,7 @@
         <v>0</v>
       </c>
       <c r="W375" s="5">
-        <f>V375-U375</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -79789,7 +79790,7 @@
         <v>0</v>
       </c>
       <c r="W376" s="5">
-        <f>V376-U376</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -79861,7 +79862,7 @@
         <v>0</v>
       </c>
       <c r="W377" s="5">
-        <f>V377-U377</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -79933,7 +79934,7 @@
         <v>0</v>
       </c>
       <c r="W378" s="5">
-        <f>V378-U378</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -80005,7 +80006,7 @@
         <v>0</v>
       </c>
       <c r="W379" s="5">
-        <f>V379-U379</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -80077,7 +80078,7 @@
         <v>0</v>
       </c>
       <c r="W380" s="5">
-        <f>V380-U380</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -80149,7 +80150,7 @@
         <v>0</v>
       </c>
       <c r="W381" s="5">
-        <f>V381-U381</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -80221,7 +80222,7 @@
         <v>0</v>
       </c>
       <c r="W382" s="5">
-        <f>V382-U382</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -80293,7 +80294,7 @@
         <v>0</v>
       </c>
       <c r="W383" s="5">
-        <f>V383-U383</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -80365,7 +80366,7 @@
         <v>0</v>
       </c>
       <c r="W384" s="5">
-        <f>V384-U384</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -80437,7 +80438,7 @@
         <v>0</v>
       </c>
       <c r="W385" s="5">
-        <f>V385-U385</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -80509,7 +80510,7 @@
         <v>0</v>
       </c>
       <c r="W386" s="5">
-        <f>V386-U386</f>
+        <f t="shared" ref="W386:W449" si="6">V386-U386</f>
         <v>0</v>
       </c>
     </row>
@@ -80581,7 +80582,7 @@
         <v>0</v>
       </c>
       <c r="W387" s="5">
-        <f>V387-U387</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -80653,7 +80654,7 @@
         <v>0</v>
       </c>
       <c r="W388" s="5">
-        <f>V388-U388</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -80725,7 +80726,7 @@
         <v>0</v>
       </c>
       <c r="W389" s="5">
-        <f>V389-U389</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -80797,7 +80798,7 @@
         <v>0</v>
       </c>
       <c r="W390" s="5">
-        <f>V390-U390</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -80869,7 +80870,7 @@
         <v>0</v>
       </c>
       <c r="W391" s="5">
-        <f>V391-U391</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -80941,7 +80942,7 @@
         <v>0</v>
       </c>
       <c r="W392" s="5">
-        <f>V392-U392</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -81013,7 +81014,7 @@
         <v>0</v>
       </c>
       <c r="W393" s="5">
-        <f>V393-U393</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -81085,7 +81086,7 @@
         <v>0</v>
       </c>
       <c r="W394" s="5">
-        <f>V394-U394</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -81157,7 +81158,7 @@
         <v>0</v>
       </c>
       <c r="W395" s="5">
-        <f>V395-U395</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -81229,7 +81230,7 @@
         <v>0</v>
       </c>
       <c r="W396" s="5">
-        <f>V396-U396</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -81301,7 +81302,7 @@
         <v>0</v>
       </c>
       <c r="W397" s="5">
-        <f>V397-U397</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -81373,7 +81374,7 @@
         <v>0</v>
       </c>
       <c r="W398" s="5">
-        <f>V398-U398</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -81445,7 +81446,7 @@
         <v>0</v>
       </c>
       <c r="W399" s="5">
-        <f>V399-U399</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -81517,7 +81518,7 @@
         <v>0</v>
       </c>
       <c r="W400" s="5">
-        <f>V400-U400</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -81589,7 +81590,7 @@
         <v>0</v>
       </c>
       <c r="W401" s="5">
-        <f>V401-U401</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -81661,7 +81662,7 @@
         <v>0</v>
       </c>
       <c r="W402" s="5">
-        <f>V402-U402</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -81733,7 +81734,7 @@
         <v>0</v>
       </c>
       <c r="W403" s="5">
-        <f>V403-U403</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -81805,7 +81806,7 @@
         <v>0</v>
       </c>
       <c r="W404" s="5">
-        <f>V404-U404</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -81877,7 +81878,7 @@
         <v>0</v>
       </c>
       <c r="W405" s="5">
-        <f>V405-U405</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -81949,7 +81950,7 @@
         <v>0</v>
       </c>
       <c r="W406" s="5">
-        <f>V406-U406</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -82021,7 +82022,7 @@
         <v>0</v>
       </c>
       <c r="W407" s="5">
-        <f>V407-U407</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -82093,7 +82094,7 @@
         <v>0</v>
       </c>
       <c r="W408" s="5">
-        <f>V408-U408</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -82165,7 +82166,7 @@
         <v>0</v>
       </c>
       <c r="W409" s="5">
-        <f>V409-U409</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -82237,7 +82238,7 @@
         <v>0</v>
       </c>
       <c r="W410" s="5">
-        <f>V410-U410</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -82309,7 +82310,7 @@
         <v>0</v>
       </c>
       <c r="W411" s="5">
-        <f>V411-U411</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -82381,7 +82382,7 @@
         <v>0</v>
       </c>
       <c r="W412" s="5">
-        <f>V412-U412</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -82453,7 +82454,7 @@
         <v>0</v>
       </c>
       <c r="W413" s="5">
-        <f>V413-U413</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -82525,7 +82526,7 @@
         <v>0</v>
       </c>
       <c r="W414" s="5">
-        <f>V414-U414</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -82597,7 +82598,7 @@
         <v>0</v>
       </c>
       <c r="W415" s="5">
-        <f>V415-U415</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -82669,7 +82670,7 @@
         <v>0</v>
       </c>
       <c r="W416" s="5">
-        <f>V416-U416</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -82741,7 +82742,7 @@
         <v>0</v>
       </c>
       <c r="W417" s="5">
-        <f>V417-U417</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -82813,7 +82814,7 @@
         <v>150000</v>
       </c>
       <c r="W418" s="5">
-        <f>V418-U418</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -82885,7 +82886,7 @@
         <v>0</v>
       </c>
       <c r="W419" s="5">
-        <f>V419-U419</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -82957,7 +82958,7 @@
         <v>0</v>
       </c>
       <c r="W420" s="5">
-        <f>V420-U420</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -83029,7 +83030,7 @@
         <v>0</v>
       </c>
       <c r="W421" s="5">
-        <f>V421-U421</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -83101,7 +83102,7 @@
         <v>0</v>
       </c>
       <c r="W422" s="5">
-        <f>V422-U422</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -83173,7 +83174,7 @@
         <v>0</v>
       </c>
       <c r="W423" s="5">
-        <f>V423-U423</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -83245,7 +83246,7 @@
         <v>0</v>
       </c>
       <c r="W424" s="5">
-        <f>V424-U424</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -83317,7 +83318,7 @@
         <v>0</v>
       </c>
       <c r="W425" s="5">
-        <f>V425-U425</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -83389,7 +83390,7 @@
         <v>0</v>
       </c>
       <c r="W426" s="5">
-        <f>V426-U426</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -83461,7 +83462,7 @@
         <v>0</v>
       </c>
       <c r="W427" s="5">
-        <f>V427-U427</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -83533,7 +83534,7 @@
         <v>0</v>
       </c>
       <c r="W428" s="5">
-        <f>V428-U428</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -83605,7 +83606,7 @@
         <v>0</v>
       </c>
       <c r="W429" s="5">
-        <f>V429-U429</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -83677,7 +83678,7 @@
         <v>0</v>
       </c>
       <c r="W430" s="5">
-        <f>V430-U430</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -83749,7 +83750,7 @@
         <v>0</v>
       </c>
       <c r="W431" s="5">
-        <f>V431-U431</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -83821,7 +83822,7 @@
         <v>0</v>
       </c>
       <c r="W432" s="5">
-        <f>V432-U432</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -83893,7 +83894,7 @@
         <v>0</v>
       </c>
       <c r="W433" s="5">
-        <f>V433-U433</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -83965,7 +83966,7 @@
         <v>0</v>
       </c>
       <c r="W434" s="5">
-        <f>V434-U434</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -84037,7 +84038,7 @@
         <v>0</v>
       </c>
       <c r="W435" s="5">
-        <f>V435-U435</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -84109,7 +84110,7 @@
         <v>0</v>
       </c>
       <c r="W436" s="5">
-        <f>V436-U436</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -84181,7 +84182,7 @@
         <v>0</v>
       </c>
       <c r="W437" s="5">
-        <f>V437-U437</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -84253,7 +84254,7 @@
         <v>0</v>
       </c>
       <c r="W438" s="5">
-        <f>V438-U438</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -84325,7 +84326,7 @@
         <v>0</v>
       </c>
       <c r="W439" s="5">
-        <f>V439-U439</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -84397,7 +84398,7 @@
         <v>0</v>
       </c>
       <c r="W440" s="5">
-        <f>V440-U440</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -84469,7 +84470,7 @@
         <v>0</v>
       </c>
       <c r="W441" s="5">
-        <f>V441-U441</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -84541,7 +84542,7 @@
         <v>0</v>
       </c>
       <c r="W442" s="5">
-        <f>V442-U442</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -84613,7 +84614,7 @@
         <v>0</v>
       </c>
       <c r="W443" s="5">
-        <f>V443-U443</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -84685,7 +84686,7 @@
         <v>0</v>
       </c>
       <c r="W444" s="5">
-        <f>V444-U444</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -84757,7 +84758,7 @@
         <v>0</v>
       </c>
       <c r="W445" s="5">
-        <f>V445-U445</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -84829,7 +84830,7 @@
         <v>0</v>
       </c>
       <c r="W446" s="5">
-        <f>V446-U446</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -84901,7 +84902,7 @@
         <v>0</v>
       </c>
       <c r="W447" s="5">
-        <f>V447-U447</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -84973,7 +84974,7 @@
         <v>0</v>
       </c>
       <c r="W448" s="5">
-        <f>V448-U448</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -85045,7 +85046,7 @@
         <v>0</v>
       </c>
       <c r="W449" s="5">
-        <f>V449-U449</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -85117,7 +85118,7 @@
         <v>0</v>
       </c>
       <c r="W450" s="5">
-        <f>V450-U450</f>
+        <f t="shared" ref="W450:W513" si="7">V450-U450</f>
         <v>0</v>
       </c>
     </row>
@@ -85189,7 +85190,7 @@
         <v>0</v>
       </c>
       <c r="W451" s="5">
-        <f>V451-U451</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -85261,7 +85262,7 @@
         <v>0</v>
       </c>
       <c r="W452" s="5">
-        <f>V452-U452</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -85333,7 +85334,7 @@
         <v>0</v>
       </c>
       <c r="W453" s="5">
-        <f>V453-U453</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -85405,7 +85406,7 @@
         <v>0</v>
       </c>
       <c r="W454" s="5">
-        <f>V454-U454</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -85477,7 +85478,7 @@
         <v>0</v>
       </c>
       <c r="W455" s="5">
-        <f>V455-U455</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -85549,7 +85550,7 @@
         <v>0</v>
       </c>
       <c r="W456" s="5">
-        <f>V456-U456</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -85621,7 +85622,7 @@
         <v>0</v>
       </c>
       <c r="W457" s="5">
-        <f>V457-U457</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -85693,7 +85694,7 @@
         <v>0</v>
       </c>
       <c r="W458" s="5">
-        <f>V458-U458</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -85765,7 +85766,7 @@
         <v>0</v>
       </c>
       <c r="W459" s="5">
-        <f>V459-U459</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -85837,7 +85838,7 @@
         <v>0</v>
       </c>
       <c r="W460" s="5">
-        <f>V460-U460</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -85909,7 +85910,7 @@
         <v>0</v>
       </c>
       <c r="W461" s="5">
-        <f>V461-U461</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -85981,7 +85982,7 @@
         <v>0</v>
       </c>
       <c r="W462" s="5">
-        <f>V462-U462</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -86053,7 +86054,7 @@
         <v>0</v>
       </c>
       <c r="W463" s="5">
-        <f>V463-U463</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -86125,7 +86126,7 @@
         <v>0</v>
       </c>
       <c r="W464" s="5">
-        <f>V464-U464</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -86197,7 +86198,7 @@
         <v>0</v>
       </c>
       <c r="W465" s="5">
-        <f>V465-U465</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -86269,7 +86270,7 @@
         <v>0</v>
       </c>
       <c r="W466" s="5">
-        <f>V466-U466</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -86341,7 +86342,7 @@
         <v>0</v>
       </c>
       <c r="W467" s="5">
-        <f>V467-U467</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -86413,7 +86414,7 @@
         <v>0</v>
       </c>
       <c r="W468" s="5">
-        <f>V468-U468</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -86485,7 +86486,7 @@
         <v>0</v>
       </c>
       <c r="W469" s="5">
-        <f>V469-U469</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -86557,7 +86558,7 @@
         <v>0</v>
       </c>
       <c r="W470" s="5">
-        <f>V470-U470</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -86629,7 +86630,7 @@
         <v>0</v>
       </c>
       <c r="W471" s="5">
-        <f>V471-U471</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -86701,7 +86702,7 @@
         <v>0</v>
       </c>
       <c r="W472" s="5">
-        <f>V472-U472</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -86773,7 +86774,7 @@
         <v>0</v>
       </c>
       <c r="W473" s="5">
-        <f>V473-U473</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -86845,7 +86846,7 @@
         <v>0</v>
       </c>
       <c r="W474" s="5">
-        <f>V474-U474</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -86917,7 +86918,7 @@
         <v>0</v>
       </c>
       <c r="W475" s="5">
-        <f>V475-U475</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -86989,7 +86990,7 @@
         <v>0</v>
       </c>
       <c r="W476" s="5">
-        <f>V476-U476</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -87061,7 +87062,7 @@
         <v>0</v>
       </c>
       <c r="W477" s="5">
-        <f>V477-U477</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -87133,7 +87134,7 @@
         <v>0</v>
       </c>
       <c r="W478" s="5">
-        <f>V478-U478</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -87205,7 +87206,7 @@
         <v>0</v>
       </c>
       <c r="W479" s="5">
-        <f>V479-U479</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -87277,7 +87278,7 @@
         <v>0</v>
       </c>
       <c r="W480" s="5">
-        <f>V480-U480</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -87349,7 +87350,7 @@
         <v>0</v>
       </c>
       <c r="W481" s="5">
-        <f>V481-U481</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -87421,7 +87422,7 @@
         <v>0</v>
       </c>
       <c r="W482" s="5">
-        <f>V482-U482</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -87493,7 +87494,7 @@
         <v>0</v>
       </c>
       <c r="W483" s="5">
-        <f>V483-U483</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -87565,7 +87566,7 @@
         <v>0</v>
       </c>
       <c r="W484" s="5">
-        <f>V484-U484</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -87637,7 +87638,7 @@
         <v>0</v>
       </c>
       <c r="W485" s="5">
-        <f>V485-U485</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -87709,7 +87710,7 @@
         <v>0</v>
       </c>
       <c r="W486" s="5">
-        <f>V486-U486</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -87781,7 +87782,7 @@
         <v>0</v>
       </c>
       <c r="W487" s="5">
-        <f>V487-U487</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -87853,7 +87854,7 @@
         <v>0</v>
       </c>
       <c r="W488" s="5">
-        <f>V488-U488</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -87925,7 +87926,7 @@
         <v>0</v>
       </c>
       <c r="W489" s="5">
-        <f>V489-U489</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -87997,7 +87998,7 @@
         <v>0</v>
       </c>
       <c r="W490" s="5">
-        <f>V490-U490</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -88069,7 +88070,7 @@
         <v>0</v>
       </c>
       <c r="W491" s="5">
-        <f>V491-U491</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -88141,7 +88142,7 @@
         <v>0</v>
       </c>
       <c r="W492" s="5">
-        <f>V492-U492</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -88213,7 +88214,7 @@
         <v>0</v>
       </c>
       <c r="W493" s="5">
-        <f>V493-U493</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -88285,7 +88286,7 @@
         <v>0</v>
       </c>
       <c r="W494" s="5">
-        <f>V494-U494</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -88357,7 +88358,7 @@
         <v>0</v>
       </c>
       <c r="W495" s="5">
-        <f>V495-U495</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -88429,7 +88430,7 @@
         <v>0</v>
       </c>
       <c r="W496" s="5">
-        <f>V496-U496</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -88501,7 +88502,7 @@
         <v>0</v>
       </c>
       <c r="W497" s="5">
-        <f>V497-U497</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -88573,7 +88574,7 @@
         <v>0</v>
       </c>
       <c r="W498" s="5">
-        <f>V498-U498</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -88645,7 +88646,7 @@
         <v>0</v>
       </c>
       <c r="W499" s="5">
-        <f>V499-U499</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -88717,7 +88718,7 @@
         <v>0</v>
       </c>
       <c r="W500" s="5">
-        <f>V500-U500</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -88789,7 +88790,7 @@
         <v>0</v>
       </c>
       <c r="W501" s="5">
-        <f>V501-U501</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -88861,7 +88862,7 @@
         <v>0</v>
       </c>
       <c r="W502" s="5">
-        <f>V502-U502</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -88933,7 +88934,7 @@
         <v>0</v>
       </c>
       <c r="W503" s="5">
-        <f>V503-U503</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -89005,7 +89006,7 @@
         <v>0</v>
       </c>
       <c r="W504" s="5">
-        <f>V504-U504</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -89077,7 +89078,7 @@
         <v>0</v>
       </c>
       <c r="W505" s="5">
-        <f>V505-U505</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -89149,7 +89150,7 @@
         <v>0</v>
       </c>
       <c r="W506" s="5">
-        <f>V506-U506</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -89221,7 +89222,7 @@
         <v>0</v>
       </c>
       <c r="W507" s="5">
-        <f>V507-U507</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -89293,7 +89294,7 @@
         <v>0</v>
       </c>
       <c r="W508" s="5">
-        <f>V508-U508</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -89365,7 +89366,7 @@
         <v>0</v>
       </c>
       <c r="W509" s="5">
-        <f>V509-U509</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -89437,7 +89438,7 @@
         <v>0</v>
       </c>
       <c r="W510" s="5">
-        <f>V510-U510</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -89509,7 +89510,7 @@
         <v>0</v>
       </c>
       <c r="W511" s="5">
-        <f>V511-U511</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -89581,7 +89582,7 @@
         <v>0</v>
       </c>
       <c r="W512" s="5">
-        <f>V512-U512</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -89653,7 +89654,7 @@
         <v>0</v>
       </c>
       <c r="W513" s="5">
-        <f>V513-U513</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -89725,7 +89726,7 @@
         <v>0</v>
       </c>
       <c r="W514" s="5">
-        <f>V514-U514</f>
+        <f t="shared" ref="W514:W577" si="8">V514-U514</f>
         <v>0</v>
       </c>
     </row>
@@ -89797,7 +89798,7 @@
         <v>0</v>
       </c>
       <c r="W515" s="5">
-        <f>V515-U515</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -89869,7 +89870,7 @@
         <v>0</v>
       </c>
       <c r="W516" s="5">
-        <f>V516-U516</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -89941,7 +89942,7 @@
         <v>0</v>
       </c>
       <c r="W517" s="5">
-        <f>V517-U517</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -90013,7 +90014,7 @@
         <v>0</v>
       </c>
       <c r="W518" s="5">
-        <f>V518-U518</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -90085,7 +90086,7 @@
         <v>0</v>
       </c>
       <c r="W519" s="5">
-        <f>V519-U519</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -90157,7 +90158,7 @@
         <v>0</v>
       </c>
       <c r="W520" s="5">
-        <f>V520-U520</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -90229,7 +90230,7 @@
         <v>0</v>
       </c>
       <c r="W521" s="5">
-        <f>V521-U521</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -90301,7 +90302,7 @@
         <v>0</v>
       </c>
       <c r="W522" s="5">
-        <f>V522-U522</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -90373,7 +90374,7 @@
         <v>0</v>
       </c>
       <c r="W523" s="5">
-        <f>V523-U523</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -90445,7 +90446,7 @@
         <v>0</v>
       </c>
       <c r="W524" s="5">
-        <f>V524-U524</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -90517,7 +90518,7 @@
         <v>0</v>
       </c>
       <c r="W525" s="5">
-        <f>V525-U525</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -90589,7 +90590,7 @@
         <v>0</v>
       </c>
       <c r="W526" s="5">
-        <f>V526-U526</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -90661,7 +90662,7 @@
         <v>0</v>
       </c>
       <c r="W527" s="5">
-        <f>V527-U527</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -90733,7 +90734,7 @@
         <v>0</v>
       </c>
       <c r="W528" s="5">
-        <f>V528-U528</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -90805,7 +90806,7 @@
         <v>0</v>
       </c>
       <c r="W529" s="5">
-        <f>V529-U529</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -90877,7 +90878,7 @@
         <v>0</v>
       </c>
       <c r="W530" s="5">
-        <f>V530-U530</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -90949,7 +90950,7 @@
         <v>0</v>
       </c>
       <c r="W531" s="5">
-        <f>V531-U531</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -91021,7 +91022,7 @@
         <v>0</v>
       </c>
       <c r="W532" s="5">
-        <f>V532-U532</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -91093,7 +91094,7 @@
         <v>0</v>
       </c>
       <c r="W533" s="5">
-        <f>V533-U533</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -91165,7 +91166,7 @@
         <v>0</v>
       </c>
       <c r="W534" s="5">
-        <f>V534-U534</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -91237,7 +91238,7 @@
         <v>0</v>
       </c>
       <c r="W535" s="5">
-        <f>V535-U535</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -91309,7 +91310,7 @@
         <v>0</v>
       </c>
       <c r="W536" s="5">
-        <f>V536-U536</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -91381,7 +91382,7 @@
         <v>0</v>
       </c>
       <c r="W537" s="5">
-        <f>V537-U537</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -91453,7 +91454,7 @@
         <v>0</v>
       </c>
       <c r="W538" s="5">
-        <f>V538-U538</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -91525,7 +91526,7 @@
         <v>0</v>
       </c>
       <c r="W539" s="5">
-        <f>V539-U539</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -91597,7 +91598,7 @@
         <v>0</v>
       </c>
       <c r="W540" s="5">
-        <f>V540-U540</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -91669,7 +91670,7 @@
         <v>0</v>
       </c>
       <c r="W541" s="5">
-        <f>V541-U541</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -91741,7 +91742,7 @@
         <v>0</v>
       </c>
       <c r="W542" s="5">
-        <f>V542-U542</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -91813,7 +91814,7 @@
         <v>0</v>
       </c>
       <c r="W543" s="5">
-        <f>V543-U543</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -91885,7 +91886,7 @@
         <v>0</v>
       </c>
       <c r="W544" s="5">
-        <f>V544-U544</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -91957,7 +91958,7 @@
         <v>0</v>
       </c>
       <c r="W545" s="5">
-        <f>V545-U545</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -92029,7 +92030,7 @@
         <v>0</v>
       </c>
       <c r="W546" s="5">
-        <f>V546-U546</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -92101,7 +92102,7 @@
         <v>0</v>
       </c>
       <c r="W547" s="5">
-        <f>V547-U547</f>
+        <f t="shared" si="8"/>
         <v>-100</v>
       </c>
     </row>
@@ -92173,7 +92174,7 @@
         <v>0</v>
       </c>
       <c r="W548" s="5">
-        <f>V548-U548</f>
+        <f t="shared" si="8"/>
         <v>-100</v>
       </c>
     </row>
@@ -92245,7 +92246,7 @@
         <v>0</v>
       </c>
       <c r="W549" s="5">
-        <f>V549-U549</f>
+        <f t="shared" si="8"/>
         <v>-100</v>
       </c>
     </row>
@@ -92317,7 +92318,7 @@
         <v>0</v>
       </c>
       <c r="W550" s="5">
-        <f>V550-U550</f>
+        <f t="shared" si="8"/>
         <v>-100</v>
       </c>
     </row>
@@ -92389,7 +92390,7 @@
         <v>120000</v>
       </c>
       <c r="W551" s="5">
-        <f>V551-U551</f>
+        <f t="shared" si="8"/>
         <v>-100</v>
       </c>
     </row>
@@ -92461,7 +92462,7 @@
         <v>0</v>
       </c>
       <c r="W552" s="5">
-        <f>V552-U552</f>
+        <f t="shared" si="8"/>
         <v>-400</v>
       </c>
     </row>
@@ -92533,7 +92534,7 @@
         <v>0</v>
       </c>
       <c r="W553" s="5">
-        <f>V553-U553</f>
+        <f t="shared" si="8"/>
         <v>-500</v>
       </c>
     </row>
@@ -92605,7 +92606,7 @@
         <v>0</v>
       </c>
       <c r="W554" s="5">
-        <f>V554-U554</f>
+        <f t="shared" si="8"/>
         <v>-1000</v>
       </c>
     </row>
@@ -92677,7 +92678,7 @@
         <v>0</v>
       </c>
       <c r="W555" s="5">
-        <f>V555-U555</f>
+        <f t="shared" si="8"/>
         <v>-1100</v>
       </c>
     </row>
@@ -92749,7 +92750,7 @@
         <v>0</v>
       </c>
       <c r="W556" s="5">
-        <f>V556-U556</f>
+        <f t="shared" si="8"/>
         <v>-1300</v>
       </c>
     </row>
@@ -92821,7 +92822,7 @@
         <v>0</v>
       </c>
       <c r="W557" s="5">
-        <f>V557-U557</f>
+        <f t="shared" si="8"/>
         <v>-1300</v>
       </c>
     </row>
@@ -92893,7 +92894,7 @@
         <v>1700</v>
       </c>
       <c r="W558" s="5">
-        <f>V558-U558</f>
+        <f t="shared" si="8"/>
         <v>-1300</v>
       </c>
     </row>
@@ -92965,7 +92966,7 @@
         <v>0</v>
       </c>
       <c r="W559" s="5">
-        <f>V559-U559</f>
+        <f t="shared" si="8"/>
         <v>-1400</v>
       </c>
     </row>
@@ -93037,7 +93038,7 @@
         <v>0</v>
       </c>
       <c r="W560" s="5">
-        <f>V560-U560</f>
+        <f t="shared" si="8"/>
         <v>-1800</v>
       </c>
     </row>
@@ -93109,7 +93110,7 @@
         <v>0</v>
       </c>
       <c r="W561" s="5">
-        <f>V561-U561</f>
+        <f t="shared" si="8"/>
         <v>-1800</v>
       </c>
     </row>
@@ -93181,7 +93182,7 @@
         <v>0</v>
       </c>
       <c r="W562" s="5">
-        <f>V562-U562</f>
+        <f t="shared" si="8"/>
         <v>-1800</v>
       </c>
     </row>
@@ -93253,7 +93254,7 @@
         <v>0</v>
       </c>
       <c r="W563" s="5">
-        <f>V563-U563</f>
+        <f t="shared" si="8"/>
         <v>-2000</v>
       </c>
     </row>
@@ -93325,7 +93326,7 @@
         <v>0</v>
       </c>
       <c r="W564" s="5">
-        <f>V564-U564</f>
+        <f t="shared" si="8"/>
         <v>-4700</v>
       </c>
     </row>
@@ -93397,7 +93398,7 @@
         <v>0</v>
       </c>
       <c r="W565" s="5">
-        <f>V565-U565</f>
+        <f t="shared" si="8"/>
         <v>-6600</v>
       </c>
     </row>
@@ -93469,7 +93470,7 @@
         <v>0</v>
       </c>
       <c r="W566" s="5">
-        <f>V566-U566</f>
+        <f t="shared" si="8"/>
         <v>-7400</v>
       </c>
     </row>
@@ -93541,7 +93542,7 @@
         <v>0</v>
       </c>
       <c r="W567" s="5">
-        <f>V567-U567</f>
+        <f t="shared" si="8"/>
         <v>-8700</v>
       </c>
     </row>
@@ -93613,7 +93614,7 @@
         <v>0</v>
       </c>
       <c r="W568" s="5">
-        <f>V568-U568</f>
+        <f t="shared" si="8"/>
         <v>-9000</v>
       </c>
     </row>
@@ -93685,7 +93686,7 @@
         <v>0</v>
       </c>
       <c r="W569" s="5">
-        <f>V569-U569</f>
+        <f t="shared" si="8"/>
         <v>-9600</v>
       </c>
     </row>
@@ -93757,7 +93758,7 @@
         <v>40000</v>
       </c>
       <c r="W570" s="5">
-        <f>V570-U570</f>
+        <f t="shared" si="8"/>
         <v>-10000</v>
       </c>
     </row>
@@ -93829,7 +93830,7 @@
         <v>0</v>
       </c>
       <c r="W571" s="5">
-        <f>V571-U571</f>
+        <f t="shared" si="8"/>
         <v>-13600</v>
       </c>
     </row>
@@ -93901,7 +93902,7 @@
         <v>100</v>
       </c>
       <c r="W572" s="5">
-        <f>V572-U572</f>
+        <f t="shared" si="8"/>
         <v>-14300</v>
       </c>
     </row>
@@ -93973,7 +93974,7 @@
         <v>7000</v>
       </c>
       <c r="W573" s="5">
-        <f>V573-U573</f>
+        <f t="shared" si="8"/>
         <v>-15700</v>
       </c>
     </row>
@@ -94045,7 +94046,7 @@
         <v>10743700</v>
       </c>
       <c r="W574" s="5">
-        <f>V574-U574</f>
+        <f t="shared" si="8"/>
         <v>-15900</v>
       </c>
     </row>
@@ -94117,7 +94118,7 @@
         <v>14600</v>
       </c>
       <c r="W575" s="5">
-        <f>V575-U575</f>
+        <f t="shared" si="8"/>
         <v>-18500</v>
       </c>
     </row>
@@ -94189,7 +94190,7 @@
         <v>0</v>
       </c>
       <c r="W576" s="5">
-        <f>V576-U576</f>
+        <f t="shared" si="8"/>
         <v>-18900</v>
       </c>
     </row>
@@ -94261,7 +94262,7 @@
         <v>0</v>
       </c>
       <c r="W577" s="5">
-        <f>V577-U577</f>
+        <f t="shared" si="8"/>
         <v>-19600</v>
       </c>
     </row>
@@ -94333,7 +94334,7 @@
         <v>0</v>
       </c>
       <c r="W578" s="5">
-        <f>V578-U578</f>
+        <f t="shared" ref="W578:W641" si="9">V578-U578</f>
         <v>-24900</v>
       </c>
     </row>
@@ -94405,7 +94406,7 @@
         <v>18300</v>
       </c>
       <c r="W579" s="5">
-        <f>V579-U579</f>
+        <f t="shared" si="9"/>
         <v>-26700</v>
       </c>
     </row>
@@ -94477,7 +94478,7 @@
         <v>0</v>
       </c>
       <c r="W580" s="5">
-        <f>V580-U580</f>
+        <f t="shared" si="9"/>
         <v>-27800</v>
       </c>
     </row>
@@ -94549,7 +94550,7 @@
         <v>0</v>
       </c>
       <c r="W581" s="5">
-        <f>V581-U581</f>
+        <f t="shared" si="9"/>
         <v>-30000</v>
       </c>
     </row>
@@ -94621,7 +94622,7 @@
         <v>0</v>
       </c>
       <c r="W582" s="5">
-        <f>V582-U582</f>
+        <f t="shared" si="9"/>
         <v>-35000</v>
       </c>
     </row>
@@ -94693,7 +94694,7 @@
         <v>0</v>
       </c>
       <c r="W583" s="5">
-        <f>V583-U583</f>
+        <f t="shared" si="9"/>
         <v>-41400</v>
       </c>
     </row>
@@ -94765,7 +94766,7 @@
         <v>0</v>
       </c>
       <c r="W584" s="5">
-        <f>V584-U584</f>
+        <f t="shared" si="9"/>
         <v>-50000</v>
       </c>
     </row>
@@ -94837,7 +94838,7 @@
         <v>0</v>
       </c>
       <c r="W585" s="5">
-        <f>V585-U585</f>
+        <f t="shared" si="9"/>
         <v>-64800</v>
       </c>
     </row>
@@ -94909,7 +94910,7 @@
         <v>20000</v>
       </c>
       <c r="W586" s="5">
-        <f>V586-U586</f>
+        <f t="shared" si="9"/>
         <v>-65000</v>
       </c>
     </row>
@@ -94981,7 +94982,7 @@
         <v>0</v>
       </c>
       <c r="W587" s="5">
-        <f>V587-U587</f>
+        <f t="shared" si="9"/>
         <v>-67200</v>
       </c>
     </row>
@@ -95053,7 +95054,7 @@
         <v>38900</v>
       </c>
       <c r="W588" s="5">
-        <f>V588-U588</f>
+        <f t="shared" si="9"/>
         <v>-70700</v>
       </c>
     </row>
@@ -95125,7 +95126,7 @@
         <v>500</v>
       </c>
       <c r="W589" s="5">
-        <f>V589-U589</f>
+        <f t="shared" si="9"/>
         <v>-71800</v>
       </c>
     </row>
@@ -95197,7 +95198,7 @@
         <v>224300</v>
       </c>
       <c r="W590" s="5">
-        <f>V590-U590</f>
+        <f t="shared" si="9"/>
         <v>-77200</v>
       </c>
     </row>
@@ -95269,7 +95270,7 @@
         <v>50000</v>
       </c>
       <c r="W591" s="5">
-        <f>V591-U591</f>
+        <f t="shared" si="9"/>
         <v>-96000</v>
       </c>
     </row>
@@ -95341,7 +95342,7 @@
         <v>19300</v>
       </c>
       <c r="W592" s="5">
-        <f>V592-U592</f>
+        <f t="shared" si="9"/>
         <v>-99000</v>
       </c>
     </row>
@@ -95413,7 +95414,7 @@
         <v>1010400</v>
       </c>
       <c r="W593" s="5">
-        <f>V593-U593</f>
+        <f t="shared" si="9"/>
         <v>-110000</v>
       </c>
     </row>
@@ -95485,7 +95486,7 @@
         <v>0</v>
       </c>
       <c r="W594" s="5">
-        <f>V594-U594</f>
+        <f t="shared" si="9"/>
         <v>-116800</v>
       </c>
     </row>
@@ -95557,7 +95558,7 @@
         <v>1067800</v>
       </c>
       <c r="W595" s="5">
-        <f>V595-U595</f>
+        <f t="shared" si="9"/>
         <v>-118100</v>
       </c>
     </row>
@@ -95629,7 +95630,7 @@
         <v>0</v>
       </c>
       <c r="W596" s="5">
-        <f>V596-U596</f>
+        <f t="shared" si="9"/>
         <v>-125800</v>
       </c>
     </row>
@@ -95701,7 +95702,7 @@
         <v>0</v>
       </c>
       <c r="W597" s="5">
-        <f>V597-U597</f>
+        <f t="shared" si="9"/>
         <v>-172000</v>
       </c>
     </row>
@@ -95773,7 +95774,7 @@
         <v>341400</v>
       </c>
       <c r="W598" s="5">
-        <f>V598-U598</f>
+        <f t="shared" si="9"/>
         <v>-175500</v>
       </c>
     </row>
@@ -95845,7 +95846,7 @@
         <v>200</v>
       </c>
       <c r="W599" s="5">
-        <f>V599-U599</f>
+        <f t="shared" si="9"/>
         <v>-175700</v>
       </c>
     </row>
@@ -95917,7 +95918,7 @@
         <v>2600</v>
       </c>
       <c r="W600" s="5">
-        <f>V600-U600</f>
+        <f t="shared" si="9"/>
         <v>-190000</v>
       </c>
     </row>
@@ -95989,7 +95990,7 @@
         <v>0</v>
       </c>
       <c r="W601" s="5">
-        <f>V601-U601</f>
+        <f t="shared" si="9"/>
         <v>-215300</v>
       </c>
     </row>
@@ -96061,7 +96062,7 @@
         <v>45000</v>
       </c>
       <c r="W602" s="5">
-        <f>V602-U602</f>
+        <f t="shared" si="9"/>
         <v>-227400</v>
       </c>
     </row>
@@ -96133,7 +96134,7 @@
         <v>770300</v>
       </c>
       <c r="W603" s="5">
-        <f>V603-U603</f>
+        <f t="shared" si="9"/>
         <v>-229700</v>
       </c>
     </row>
@@ -96205,7 +96206,7 @@
         <v>131500</v>
       </c>
       <c r="W604" s="5">
-        <f>V604-U604</f>
+        <f t="shared" si="9"/>
         <v>-246300</v>
       </c>
     </row>
@@ -96277,7 +96278,7 @@
         <v>0</v>
       </c>
       <c r="W605" s="5">
-        <f>V605-U605</f>
+        <f t="shared" si="9"/>
         <v>-264200</v>
       </c>
     </row>
@@ -96349,7 +96350,7 @@
         <v>427000</v>
       </c>
       <c r="W606" s="5">
-        <f>V606-U606</f>
+        <f t="shared" si="9"/>
         <v>-298800</v>
       </c>
     </row>
@@ -96421,7 +96422,7 @@
         <v>0</v>
       </c>
       <c r="W607" s="5">
-        <f>V607-U607</f>
+        <f t="shared" si="9"/>
         <v>-300200</v>
       </c>
     </row>
@@ -96493,7 +96494,7 @@
         <v>15000</v>
       </c>
       <c r="W608" s="5">
-        <f>V608-U608</f>
+        <f t="shared" si="9"/>
         <v>-307700</v>
       </c>
     </row>
@@ -96565,7 +96566,7 @@
         <v>16000</v>
       </c>
       <c r="W609" s="5">
-        <f>V609-U609</f>
+        <f t="shared" si="9"/>
         <v>-339000</v>
       </c>
     </row>
@@ -96637,7 +96638,7 @@
         <v>119900</v>
       </c>
       <c r="W610" s="5">
-        <f>V610-U610</f>
+        <f t="shared" si="9"/>
         <v>-340400</v>
       </c>
     </row>
@@ -96709,7 +96710,7 @@
         <v>323800</v>
       </c>
       <c r="W611" s="5">
-        <f>V611-U611</f>
+        <f t="shared" si="9"/>
         <v>-346500</v>
       </c>
     </row>
@@ -96781,7 +96782,7 @@
         <v>0</v>
       </c>
       <c r="W612" s="5">
-        <f>V612-U612</f>
+        <f t="shared" si="9"/>
         <v>-379700</v>
       </c>
     </row>
@@ -96853,7 +96854,7 @@
         <v>1785100</v>
       </c>
       <c r="W613" s="5">
-        <f>V613-U613</f>
+        <f t="shared" si="9"/>
         <v>-382700</v>
       </c>
     </row>
@@ -96925,7 +96926,7 @@
         <v>25000</v>
       </c>
       <c r="W614" s="5">
-        <f>V614-U614</f>
+        <f t="shared" si="9"/>
         <v>-385000</v>
       </c>
     </row>
@@ -96997,7 +96998,7 @@
         <v>106400</v>
       </c>
       <c r="W615" s="5">
-        <f>V615-U615</f>
+        <f t="shared" si="9"/>
         <v>-394500</v>
       </c>
     </row>
@@ -97069,7 +97070,7 @@
         <v>0</v>
       </c>
       <c r="W616" s="5">
-        <f>V616-U616</f>
+        <f t="shared" si="9"/>
         <v>-400000</v>
       </c>
     </row>
@@ -97141,7 +97142,7 @@
         <v>379300</v>
       </c>
       <c r="W617" s="5">
-        <f>V617-U617</f>
+        <f t="shared" si="9"/>
         <v>-411700</v>
       </c>
     </row>
@@ -97213,7 +97214,7 @@
         <v>0</v>
       </c>
       <c r="W618" s="5">
-        <f>V618-U618</f>
+        <f t="shared" si="9"/>
         <v>-425000</v>
       </c>
     </row>
@@ -97285,7 +97286,7 @@
         <v>1087000</v>
       </c>
       <c r="W619" s="5">
-        <f>V619-U619</f>
+        <f t="shared" si="9"/>
         <v>-442800</v>
       </c>
     </row>
@@ -97357,7 +97358,7 @@
         <v>714700</v>
       </c>
       <c r="W620" s="5">
-        <f>V620-U620</f>
+        <f t="shared" si="9"/>
         <v>-442800</v>
       </c>
     </row>
@@ -97429,7 +97430,7 @@
         <v>0</v>
       </c>
       <c r="W621" s="5">
-        <f>V621-U621</f>
+        <f t="shared" si="9"/>
         <v>-456800</v>
       </c>
     </row>
@@ -97501,7 +97502,7 @@
         <v>283500</v>
       </c>
       <c r="W622" s="5">
-        <f>V622-U622</f>
+        <f t="shared" si="9"/>
         <v>-486100</v>
       </c>
     </row>
@@ -97573,7 +97574,7 @@
         <v>0</v>
       </c>
       <c r="W623" s="5">
-        <f>V623-U623</f>
+        <f t="shared" si="9"/>
         <v>-504000</v>
       </c>
     </row>
@@ -97645,7 +97646,7 @@
         <v>752200</v>
       </c>
       <c r="W624" s="5">
-        <f>V624-U624</f>
+        <f t="shared" si="9"/>
         <v>-536000</v>
       </c>
     </row>
@@ -97717,7 +97718,7 @@
         <v>0</v>
       </c>
       <c r="W625" s="5">
-        <f>V625-U625</f>
+        <f t="shared" si="9"/>
         <v>-538200</v>
       </c>
     </row>
@@ -97789,7 +97790,7 @@
         <v>700000</v>
       </c>
       <c r="W626" s="5">
-        <f>V626-U626</f>
+        <f t="shared" si="9"/>
         <v>-560200</v>
       </c>
     </row>
@@ -97861,7 +97862,7 @@
         <v>20000</v>
       </c>
       <c r="W627" s="5">
-        <f>V627-U627</f>
+        <f t="shared" si="9"/>
         <v>-565700</v>
       </c>
     </row>
@@ -97933,7 +97934,7 @@
         <v>0</v>
       </c>
       <c r="W628" s="5">
-        <f>V628-U628</f>
+        <f t="shared" si="9"/>
         <v>-635700</v>
       </c>
     </row>
@@ -98005,7 +98006,7 @@
         <v>0</v>
       </c>
       <c r="W629" s="5">
-        <f>V629-U629</f>
+        <f t="shared" si="9"/>
         <v>-708700</v>
       </c>
     </row>
@@ -98077,7 +98078,7 @@
         <v>0</v>
       </c>
       <c r="W630" s="5">
-        <f>V630-U630</f>
+        <f t="shared" si="9"/>
         <v>-719300</v>
       </c>
     </row>
@@ -98149,7 +98150,7 @@
         <v>0</v>
       </c>
       <c r="W631" s="5">
-        <f>V631-U631</f>
+        <f t="shared" si="9"/>
         <v>-742400</v>
       </c>
     </row>
@@ -98221,7 +98222,7 @@
         <v>50000</v>
       </c>
       <c r="W632" s="5">
-        <f>V632-U632</f>
+        <f t="shared" si="9"/>
         <v>-845800</v>
       </c>
     </row>
@@ -98293,7 +98294,7 @@
         <v>353700</v>
       </c>
       <c r="W633" s="5">
-        <f>V633-U633</f>
+        <f t="shared" si="9"/>
         <v>-871000</v>
       </c>
     </row>
@@ -98365,7 +98366,7 @@
         <v>110000</v>
       </c>
       <c r="W634" s="5">
-        <f>V634-U634</f>
+        <f t="shared" si="9"/>
         <v>-891500</v>
       </c>
     </row>
@@ -98437,7 +98438,7 @@
         <v>60666600</v>
       </c>
       <c r="W635" s="5">
-        <f>V635-U635</f>
+        <f t="shared" si="9"/>
         <v>-910100</v>
       </c>
     </row>
@@ -98509,7 +98510,7 @@
         <v>140400</v>
       </c>
       <c r="W636" s="5">
-        <f>V636-U636</f>
+        <f t="shared" si="9"/>
         <v>-920800</v>
       </c>
     </row>
@@ -98581,7 +98582,7 @@
         <v>0</v>
       </c>
       <c r="W637" s="5">
-        <f>V637-U637</f>
+        <f t="shared" si="9"/>
         <v>-926800</v>
       </c>
     </row>
@@ -98653,7 +98654,7 @@
         <v>444200</v>
       </c>
       <c r="W638" s="5">
-        <f>V638-U638</f>
+        <f t="shared" si="9"/>
         <v>-1042000</v>
       </c>
     </row>
@@ -98725,7 +98726,7 @@
         <v>831800</v>
       </c>
       <c r="W639" s="5">
-        <f>V639-U639</f>
+        <f t="shared" si="9"/>
         <v>-1075200</v>
       </c>
     </row>
@@ -98797,7 +98798,7 @@
         <v>489300</v>
       </c>
       <c r="W640" s="5">
-        <f>V640-U640</f>
+        <f t="shared" si="9"/>
         <v>-1078200</v>
       </c>
     </row>
@@ -98869,7 +98870,7 @@
         <v>1373200</v>
       </c>
       <c r="W641" s="5">
-        <f>V641-U641</f>
+        <f t="shared" si="9"/>
         <v>-1119900</v>
       </c>
     </row>
@@ -98941,7 +98942,7 @@
         <v>65900</v>
       </c>
       <c r="W642" s="5">
-        <f>V642-U642</f>
+        <f t="shared" ref="W642:W705" si="10">V642-U642</f>
         <v>-1165100</v>
       </c>
     </row>
@@ -99013,7 +99014,7 @@
         <v>336400</v>
       </c>
       <c r="W643" s="5">
-        <f>V643-U643</f>
+        <f t="shared" si="10"/>
         <v>-1193500</v>
       </c>
     </row>
@@ -99085,7 +99086,7 @@
         <v>580900</v>
       </c>
       <c r="W644" s="5">
-        <f>V644-U644</f>
+        <f t="shared" si="10"/>
         <v>-1224000</v>
       </c>
     </row>
@@ -99157,7 +99158,7 @@
         <v>6825300</v>
       </c>
       <c r="W645" s="5">
-        <f>V645-U645</f>
+        <f t="shared" si="10"/>
         <v>-1228300</v>
       </c>
     </row>
@@ -99229,7 +99230,7 @@
         <v>4324400</v>
       </c>
       <c r="W646" s="5">
-        <f>V646-U646</f>
+        <f t="shared" si="10"/>
         <v>-1384500</v>
       </c>
     </row>
@@ -99301,7 +99302,7 @@
         <v>84500</v>
       </c>
       <c r="W647" s="5">
-        <f>V647-U647</f>
+        <f t="shared" si="10"/>
         <v>-1421900</v>
       </c>
     </row>
@@ -99373,7 +99374,7 @@
         <v>100</v>
       </c>
       <c r="W648" s="5">
-        <f>V648-U648</f>
+        <f t="shared" si="10"/>
         <v>-1547700</v>
       </c>
     </row>
@@ -99445,7 +99446,7 @@
         <v>565900</v>
       </c>
       <c r="W649" s="5">
-        <f>V649-U649</f>
+        <f t="shared" si="10"/>
         <v>-1625200</v>
       </c>
     </row>
@@ -99517,7 +99518,7 @@
         <v>703400</v>
       </c>
       <c r="W650" s="5">
-        <f>V650-U650</f>
+        <f t="shared" si="10"/>
         <v>-1711800</v>
       </c>
     </row>
@@ -99589,7 +99590,7 @@
         <v>55000</v>
       </c>
       <c r="W651" s="5">
-        <f>V651-U651</f>
+        <f t="shared" si="10"/>
         <v>-1750000</v>
       </c>
     </row>
@@ -99661,7 +99662,7 @@
         <v>3932800</v>
       </c>
       <c r="W652" s="5">
-        <f>V652-U652</f>
+        <f t="shared" si="10"/>
         <v>-1805000</v>
       </c>
     </row>
@@ -99733,7 +99734,7 @@
         <v>1812200</v>
       </c>
       <c r="W653" s="5">
-        <f>V653-U653</f>
+        <f t="shared" si="10"/>
         <v>-2089900</v>
       </c>
     </row>
@@ -99805,7 +99806,7 @@
         <v>1628600</v>
       </c>
       <c r="W654" s="5">
-        <f>V654-U654</f>
+        <f t="shared" si="10"/>
         <v>-2294400</v>
       </c>
     </row>
@@ -99877,7 +99878,7 @@
         <v>1937700</v>
       </c>
       <c r="W655" s="5">
-        <f>V655-U655</f>
+        <f t="shared" si="10"/>
         <v>-2309200</v>
       </c>
     </row>
@@ -99949,7 +99950,7 @@
         <v>676200</v>
       </c>
       <c r="W656" s="5">
-        <f>V656-U656</f>
+        <f t="shared" si="10"/>
         <v>-2340300</v>
       </c>
     </row>
@@ -100021,7 +100022,7 @@
         <v>10174600</v>
       </c>
       <c r="W657" s="5">
-        <f>V657-U657</f>
+        <f t="shared" si="10"/>
         <v>-2358000</v>
       </c>
     </row>
@@ -100093,7 +100094,7 @@
         <v>2327400</v>
       </c>
       <c r="W658" s="5">
-        <f>V658-U658</f>
+        <f t="shared" si="10"/>
         <v>-2391800</v>
       </c>
     </row>
@@ -100165,7 +100166,7 @@
         <v>3141700</v>
       </c>
       <c r="W659" s="5">
-        <f>V659-U659</f>
+        <f t="shared" si="10"/>
         <v>-2560400</v>
       </c>
     </row>
@@ -100237,7 +100238,7 @@
         <v>175500</v>
       </c>
       <c r="W660" s="5">
-        <f>V660-U660</f>
+        <f t="shared" si="10"/>
         <v>-2705500</v>
       </c>
     </row>
@@ -100309,7 +100310,7 @@
         <v>2569600</v>
       </c>
       <c r="W661" s="5">
-        <f>V661-U661</f>
+        <f t="shared" si="10"/>
         <v>-2837500</v>
       </c>
     </row>
@@ -100381,7 +100382,7 @@
         <v>0</v>
       </c>
       <c r="W662" s="5">
-        <f>V662-U662</f>
+        <f t="shared" si="10"/>
         <v>-2891500</v>
       </c>
     </row>
@@ -100453,7 +100454,7 @@
         <v>12761900</v>
       </c>
       <c r="W663" s="5">
-        <f>V663-U663</f>
+        <f t="shared" si="10"/>
         <v>-3119000</v>
       </c>
     </row>
@@ -100525,7 +100526,7 @@
         <v>5841400</v>
       </c>
       <c r="W664" s="5">
-        <f>V664-U664</f>
+        <f t="shared" si="10"/>
         <v>-3554700</v>
       </c>
     </row>
@@ -100597,7 +100598,7 @@
         <v>282700</v>
       </c>
       <c r="W665" s="5">
-        <f>V665-U665</f>
+        <f t="shared" si="10"/>
         <v>-3583300</v>
       </c>
     </row>
@@ -100669,7 +100670,7 @@
         <v>38400</v>
       </c>
       <c r="W666" s="5">
-        <f>V666-U666</f>
+        <f t="shared" si="10"/>
         <v>-4475700</v>
       </c>
     </row>
@@ -100741,7 +100742,7 @@
         <v>681900</v>
       </c>
       <c r="W667" s="5">
-        <f>V667-U667</f>
+        <f t="shared" si="10"/>
         <v>-4789900</v>
       </c>
     </row>
@@ -100813,7 +100814,7 @@
         <v>1076200</v>
       </c>
       <c r="W668" s="5">
-        <f>V668-U668</f>
+        <f t="shared" si="10"/>
         <v>-4837800</v>
       </c>
     </row>
@@ -100885,7 +100886,7 @@
         <v>1573800</v>
       </c>
       <c r="W669" s="5">
-        <f>V669-U669</f>
+        <f t="shared" si="10"/>
         <v>-5004500</v>
       </c>
     </row>
@@ -100957,7 +100958,7 @@
         <v>2910800</v>
       </c>
       <c r="W670" s="5">
-        <f>V670-U670</f>
+        <f t="shared" si="10"/>
         <v>-5148800</v>
       </c>
     </row>
@@ -101029,7 +101030,7 @@
         <v>20000</v>
       </c>
       <c r="W671" s="5">
-        <f>V671-U671</f>
+        <f t="shared" si="10"/>
         <v>-5178800</v>
       </c>
     </row>
@@ -101101,7 +101102,7 @@
         <v>3917500</v>
       </c>
       <c r="W672" s="5">
-        <f>V672-U672</f>
+        <f t="shared" si="10"/>
         <v>-5191800</v>
       </c>
     </row>
@@ -101173,7 +101174,7 @@
         <v>6377400</v>
       </c>
       <c r="W673" s="5">
-        <f>V673-U673</f>
+        <f t="shared" si="10"/>
         <v>-5508600</v>
       </c>
     </row>
@@ -101245,7 +101246,7 @@
         <v>466700</v>
       </c>
       <c r="W674" s="5">
-        <f>V674-U674</f>
+        <f t="shared" si="10"/>
         <v>-5744400</v>
       </c>
     </row>
@@ -101317,7 +101318,7 @@
         <v>11814700</v>
       </c>
       <c r="W675" s="5">
-        <f>V675-U675</f>
+        <f t="shared" si="10"/>
         <v>-6003100</v>
       </c>
     </row>
@@ -101389,7 +101390,7 @@
         <v>4674000</v>
       </c>
       <c r="W676" s="5">
-        <f>V676-U676</f>
+        <f t="shared" si="10"/>
         <v>-6248400</v>
       </c>
     </row>
@@ -101461,7 +101462,7 @@
         <v>1994000</v>
       </c>
       <c r="W677" s="5">
-        <f>V677-U677</f>
+        <f t="shared" si="10"/>
         <v>-6259300</v>
       </c>
     </row>
@@ -101533,7 +101534,7 @@
         <v>5537400</v>
       </c>
       <c r="W678" s="5">
-        <f>V678-U678</f>
+        <f t="shared" si="10"/>
         <v>-6481000</v>
       </c>
     </row>
@@ -101605,7 +101606,7 @@
         <v>5637100</v>
       </c>
       <c r="W679" s="5">
-        <f>V679-U679</f>
+        <f t="shared" si="10"/>
         <v>-6806700</v>
       </c>
     </row>
@@ -101677,7 +101678,7 @@
         <v>2793300</v>
       </c>
       <c r="W680" s="5">
-        <f>V680-U680</f>
+        <f t="shared" si="10"/>
         <v>-7159400</v>
       </c>
     </row>
@@ -101749,7 +101750,7 @@
         <v>350600</v>
       </c>
       <c r="W681" s="5">
-        <f>V681-U681</f>
+        <f t="shared" si="10"/>
         <v>-7675500</v>
       </c>
     </row>
@@ -101821,7 +101822,7 @@
         <v>10903500</v>
       </c>
       <c r="W682" s="5">
-        <f>V682-U682</f>
+        <f t="shared" si="10"/>
         <v>-7786800</v>
       </c>
     </row>
@@ -101893,7 +101894,7 @@
         <v>10021400</v>
       </c>
       <c r="W683" s="5">
-        <f>V683-U683</f>
+        <f t="shared" si="10"/>
         <v>-8287600</v>
       </c>
     </row>
@@ -101965,7 +101966,7 @@
         <v>7941300</v>
       </c>
       <c r="W684" s="5">
-        <f>V684-U684</f>
+        <f t="shared" si="10"/>
         <v>-9177700</v>
       </c>
     </row>
@@ -102037,7 +102038,7 @@
         <v>48093100</v>
       </c>
       <c r="W685" s="5">
-        <f>V685-U685</f>
+        <f t="shared" si="10"/>
         <v>-10086900</v>
       </c>
     </row>
@@ -102109,7 +102110,7 @@
         <v>0</v>
       </c>
       <c r="W686" s="5">
-        <f>V686-U686</f>
+        <f t="shared" si="10"/>
         <v>-10196800</v>
       </c>
     </row>
@@ -102181,7 +102182,7 @@
         <v>3584300</v>
       </c>
       <c r="W687" s="5">
-        <f>V687-U687</f>
+        <f t="shared" si="10"/>
         <v>-11318500</v>
       </c>
     </row>
@@ -102253,7 +102254,7 @@
         <v>1627100</v>
       </c>
       <c r="W688" s="5">
-        <f>V688-U688</f>
+        <f t="shared" si="10"/>
         <v>-15614000</v>
       </c>
     </row>
@@ -102325,7 +102326,7 @@
         <v>1663200</v>
       </c>
       <c r="W689" s="5">
-        <f>V689-U689</f>
+        <f t="shared" si="10"/>
         <v>-16087900</v>
       </c>
     </row>
@@ -102397,7 +102398,7 @@
         <v>11928700</v>
       </c>
       <c r="W690" s="5">
-        <f>V690-U690</f>
+        <f t="shared" si="10"/>
         <v>-19030400</v>
       </c>
     </row>
@@ -102469,7 +102470,7 @@
         <v>4046700</v>
       </c>
       <c r="W691" s="5">
-        <f>V691-U691</f>
+        <f t="shared" si="10"/>
         <v>-20303700</v>
       </c>
     </row>
@@ -102541,7 +102542,7 @@
         <v>13714300</v>
       </c>
       <c r="W692" s="5">
-        <f>V692-U692</f>
+        <f t="shared" si="10"/>
         <v>-26857700</v>
       </c>
     </row>
@@ -102613,7 +102614,7 @@
         <v>6007900</v>
       </c>
       <c r="W693" s="5">
-        <f>V693-U693</f>
+        <f t="shared" si="10"/>
         <v>-35298600</v>
       </c>
     </row>
@@ -102685,7 +102686,7 @@
         <v>1786600</v>
       </c>
       <c r="W694" s="5">
-        <f>V694-U694</f>
+        <f t="shared" si="10"/>
         <v>-39319800</v>
       </c>
     </row>
@@ -102757,7 +102758,7 @@
         <v>28038300</v>
       </c>
       <c r="W695" s="5">
-        <f>V695-U695</f>
+        <f t="shared" si="10"/>
         <v>-57555600</v>
       </c>
     </row>
@@ -102829,7 +102830,7 @@
         <v>3057900</v>
       </c>
       <c r="W696" s="5">
-        <f>V696-U696</f>
+        <f t="shared" si="10"/>
         <v>-112428900</v>
       </c>
     </row>
@@ -102841,4 +102842,16 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Ringkasan Saham-minggu ke2 Juni 2020.xlsx
+++ b/Ringkasan Saham-minggu ke2 Juni 2020.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="15 Juni" sheetId="1" r:id="rId1"/>
     <sheet name="16 Juni" sheetId="2" r:id="rId2"/>
-    <sheet name="17 Juni" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'15 Juni'!$A$1:$AB$697</definedName>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4215" uniqueCount="1416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4219" uniqueCount="1420">
   <si>
     <t>No</t>
   </si>
@@ -4269,6 +4269,18 @@
   </si>
   <si>
     <t>Net Foreign BUY/SELL</t>
+  </si>
+  <si>
+    <t>qewfgasdfzxcvbdfg</t>
+  </si>
+  <si>
+    <t>sfe</t>
+  </si>
+  <si>
+    <t>asdfsdf</t>
+  </si>
+  <si>
+    <t>sadf</t>
   </si>
 </sst>
 </file>
@@ -102846,12 +102858,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="C6" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="D8" t="s">
+        <v>1418</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>